--- a/results/case2_cut_off/data_uniquie_case2_cut_off_recipe.xlsx
+++ b/results/case2_cut_off/data_uniquie_case2_cut_off_recipe.xlsx
@@ -1157,132 +1157,132 @@
     </row>
     <row r="12" spans="1:21">
       <c r="A12">
-        <v>0.01162068853366516</v>
+        <v>0.0005037847466430807</v>
       </c>
       <c r="B12">
-        <v>3.466886165836328</v>
+        <v>0.2084098694327519</v>
       </c>
       <c r="C12">
-        <v>0.70861619235489</v>
+        <v>0.01250017987953924</v>
       </c>
       <c r="D12">
-        <v>0.8912456429110691</v>
+        <v>0.01630201309091486</v>
       </c>
       <c r="E12">
-        <v>36.4212533111198</v>
+        <v>0.6245138305579402</v>
       </c>
       <c r="F12">
-        <v>0.8974062371101224</v>
+        <v>0.05471552675193321</v>
       </c>
       <c r="G12">
-        <v>0.003207825050433908</v>
+        <v>0.0001634954727692901</v>
       </c>
       <c r="H12">
-        <v>0.001413958191013651</v>
+        <v>1.188510952344638E-05</v>
       </c>
       <c r="I12">
-        <v>0.3160316946972483</v>
+        <v>0.01662770325107313</v>
       </c>
       <c r="J12">
-        <v>9.502532570551066</v>
+        <v>0.2947845020309169</v>
       </c>
       <c r="K12">
-        <v>0.9889259696164078</v>
+        <v>0.06328972170809839</v>
       </c>
       <c r="L12">
-        <v>0.6648528968370724</v>
+        <v>0.04349396300235626</v>
       </c>
       <c r="M12">
-        <v>0.05724205262557135</v>
+        <v>0.002096436363283348</v>
       </c>
       <c r="N12">
-        <v>3.63871781771318E-06</v>
+        <v>2.090750677630303E-07</v>
       </c>
       <c r="O12">
-        <v>0.003997746807853137</v>
+        <v>0.0001699537496075965</v>
       </c>
       <c r="P12">
-        <v>0.007253941222927495</v>
+        <v>0.0004089896559718349</v>
       </c>
       <c r="Q12">
-        <v>0.00743266476975125</v>
+        <v>0.0004182080312476311</v>
       </c>
       <c r="R12">
-        <v>0.05870154965953023</v>
+        <v>0.003495028334459833</v>
       </c>
       <c r="S12">
-        <v>2.217736208777625E-08</v>
+        <v>1.257077542404081E-09</v>
       </c>
       <c r="T12">
-        <v>9.091799538367328E-06</v>
+        <v>4.313872765064571E-07</v>
       </c>
       <c r="U12">
-        <v>0.1818204876124281</v>
+        <v>0.01031957054621836</v>
       </c>
     </row>
     <row r="13" spans="1:21">
       <c r="A13">
-        <v>0.0005037847466430807</v>
+        <v>0.01162068853366516</v>
       </c>
       <c r="B13">
-        <v>0.2084098694327519</v>
+        <v>3.466886165836328</v>
       </c>
       <c r="C13">
-        <v>0.01250017987953924</v>
+        <v>0.70861619235489</v>
       </c>
       <c r="D13">
-        <v>0.01630201309091486</v>
+        <v>0.8912456429110691</v>
       </c>
       <c r="E13">
-        <v>0.6245138305579402</v>
+        <v>36.4212533111198</v>
       </c>
       <c r="F13">
-        <v>0.05471552675193321</v>
+        <v>0.8974062371101224</v>
       </c>
       <c r="G13">
-        <v>0.0001634954727692901</v>
+        <v>0.003207825050433908</v>
       </c>
       <c r="H13">
-        <v>1.188510952344638E-05</v>
+        <v>0.001413958191013651</v>
       </c>
       <c r="I13">
-        <v>0.01662770325107313</v>
+        <v>0.3160316946972483</v>
       </c>
       <c r="J13">
-        <v>0.2947845020309169</v>
+        <v>9.502532570551066</v>
       </c>
       <c r="K13">
-        <v>0.06328972170809839</v>
+        <v>0.9889259696164078</v>
       </c>
       <c r="L13">
-        <v>0.04349396300235626</v>
+        <v>0.6648528968370724</v>
       </c>
       <c r="M13">
-        <v>0.002096436363283348</v>
+        <v>0.05724205262557135</v>
       </c>
       <c r="N13">
-        <v>2.090750677630303E-07</v>
+        <v>3.63871781771318E-06</v>
       </c>
       <c r="O13">
-        <v>0.0001699537496075965</v>
+        <v>0.003997746807853137</v>
       </c>
       <c r="P13">
-        <v>0.0004089896559718349</v>
+        <v>0.007253941222927495</v>
       </c>
       <c r="Q13">
-        <v>0.0004182080312476311</v>
+        <v>0.00743266476975125</v>
       </c>
       <c r="R13">
-        <v>0.003495028334459833</v>
+        <v>0.05870154965953023</v>
       </c>
       <c r="S13">
-        <v>1.257077542404081E-09</v>
+        <v>2.217736208777625E-08</v>
       </c>
       <c r="T13">
-        <v>4.313872765064571E-07</v>
+        <v>9.091799538367328E-06</v>
       </c>
       <c r="U13">
-        <v>0.01031957054621836</v>
+        <v>0.1818204876124281</v>
       </c>
     </row>
     <row r="14" spans="1:21">

--- a/results/case2_cut_off/data_uniquie_case2_cut_off_recipe.xlsx
+++ b/results/case2_cut_off/data_uniquie_case2_cut_off_recipe.xlsx
@@ -507,1107 +507,1107 @@
     </row>
     <row r="2" spans="1:21">
       <c r="A2">
-        <v>0.0003671063850129994</v>
+        <v>0.0003425781623884415</v>
       </c>
       <c r="B2">
-        <v>0.3352970796357096</v>
+        <v>0.3281570466931743</v>
       </c>
       <c r="C2">
-        <v>0.01341646132112887</v>
+        <v>0.01184520234570621</v>
       </c>
       <c r="D2">
-        <v>0.01905140617934046</v>
+        <v>0.0170749990211199</v>
       </c>
       <c r="E2">
-        <v>0.8019288546315472</v>
+        <v>0.717756246145474</v>
       </c>
       <c r="F2">
-        <v>0.1175416923827217</v>
+        <v>0.115699332878513</v>
       </c>
       <c r="G2">
-        <v>9.376871082628099E-06</v>
+        <v>3.298847121460018E-06</v>
       </c>
       <c r="H2">
-        <v>4.280251991180856E-06</v>
+        <v>3.870076823661328E-06</v>
       </c>
       <c r="I2">
-        <v>0.004663928737628789</v>
+        <v>0.003991521966311119</v>
       </c>
       <c r="J2">
-        <v>0.1462720832783319</v>
+        <v>0.126418398186744</v>
       </c>
       <c r="K2">
-        <v>-0.004028207688336088</v>
+        <v>-0.006059359525740825</v>
       </c>
       <c r="L2">
-        <v>-0.05615682736691144</v>
+        <v>-0.05756637405232852</v>
       </c>
       <c r="M2">
-        <v>0.001508444967122296</v>
+        <v>0.001395845316232649</v>
       </c>
       <c r="N2">
-        <v>-4.830052720373206E-08</v>
+        <v>-5.518284975745522E-08</v>
       </c>
       <c r="O2">
-        <v>0.000162502062911242</v>
+        <v>0.0001540992494267423</v>
       </c>
       <c r="P2">
-        <v>0.0002352056288325101</v>
+        <v>0.0002202273038038324</v>
       </c>
       <c r="Q2">
-        <v>0.0002574101795625697</v>
+        <v>0.0002420691444768594</v>
       </c>
       <c r="R2">
-        <v>0.001134717599058018</v>
+        <v>0.001015922592381875</v>
       </c>
       <c r="S2">
-        <v>5.788911612877314E-10</v>
+        <v>5.328908648505404E-10</v>
       </c>
       <c r="T2">
-        <v>4.64750052872548E-07</v>
+        <v>4.457882813141255E-07</v>
       </c>
       <c r="U2">
-        <v>0.04805269668774292</v>
+        <v>0.04768744207211895</v>
       </c>
     </row>
     <row r="3" spans="1:21">
       <c r="A3">
-        <v>0.0006721378214411255</v>
+        <v>0.0006720016567499758</v>
       </c>
       <c r="B3">
-        <v>0.1823296250647998</v>
+        <v>0.1822838754202795</v>
       </c>
       <c r="C3">
-        <v>0.04125837543010974</v>
+        <v>0.04125832725290141</v>
       </c>
       <c r="D3">
-        <v>0.05201867263642872</v>
+        <v>0.0520185743799752</v>
       </c>
       <c r="E3">
-        <v>2.319422001579027</v>
+        <v>2.319406782308865</v>
       </c>
       <c r="F3">
-        <v>0.04713929687228847</v>
+        <v>0.04712924038688626</v>
       </c>
       <c r="G3">
-        <v>0.000176969459853278</v>
+        <v>0.0001769691982145868</v>
       </c>
       <c r="H3">
-        <v>9.346015440261564E-05</v>
+        <v>9.346028900427884E-05</v>
       </c>
       <c r="I3">
-        <v>0.0172493073515078</v>
+        <v>0.01724853646469634</v>
       </c>
       <c r="J3">
-        <v>0.5709014833151146</v>
+        <v>0.5708937271657222</v>
       </c>
       <c r="K3">
-        <v>0.0510112034839536</v>
+        <v>0.05102670421992616</v>
       </c>
       <c r="L3">
-        <v>0.03440782864029545</v>
+        <v>0.034407919429011</v>
       </c>
       <c r="M3">
-        <v>0.003585873078723949</v>
+        <v>0.003585839305693599</v>
       </c>
       <c r="N3">
-        <v>1.955997206230016E-07</v>
+        <v>1.955897126204152E-07</v>
       </c>
       <c r="O3">
-        <v>0.0002308401166734271</v>
+        <v>0.0002307194056652674</v>
       </c>
       <c r="P3">
-        <v>0.0003895141253617483</v>
+        <v>0.0003893896539316574</v>
       </c>
       <c r="Q3">
-        <v>0.0003991859535605031</v>
+        <v>0.0003990601703875094</v>
       </c>
       <c r="R3">
-        <v>0.00318723789597906</v>
+        <v>0.003187288210232879</v>
       </c>
       <c r="S3">
-        <v>1.188884978872138E-09</v>
+        <v>1.188712156065391E-09</v>
       </c>
       <c r="T3">
-        <v>5.096152758098029E-07</v>
+        <v>5.094927295635019E-07</v>
       </c>
       <c r="U3">
-        <v>0.009768514553583208</v>
+        <v>0.009766875812259697</v>
       </c>
     </row>
     <row r="4" spans="1:21">
       <c r="A4">
-        <v>0.009064027566420434</v>
+        <v>0.009064027517111427</v>
       </c>
       <c r="B4">
-        <v>3.206511208459109</v>
+        <v>3.206511200458488</v>
       </c>
       <c r="C4">
-        <v>0.08084504526570904</v>
+        <v>0.08084504266178817</v>
       </c>
       <c r="D4">
-        <v>0.1082172019058139</v>
+        <v>0.1082171985678932</v>
       </c>
       <c r="E4">
-        <v>7.507900587783467</v>
+        <v>7.507900364373238</v>
       </c>
       <c r="F4">
-        <v>1.898750871825515</v>
+        <v>1.89875087031412</v>
       </c>
       <c r="G4">
-        <v>0.0007928509601448288</v>
+        <v>0.0007928509551372221</v>
       </c>
       <c r="H4">
-        <v>0.0001122478955559566</v>
+        <v>0.0001122478951027875</v>
       </c>
       <c r="I4">
-        <v>0.130421386593576</v>
+        <v>0.1304213839177061</v>
       </c>
       <c r="J4">
-        <v>1.940271993354401</v>
+        <v>1.940271954263387</v>
       </c>
       <c r="K4">
-        <v>0.2031594531709445</v>
+        <v>0.2031594529083666</v>
       </c>
       <c r="L4">
-        <v>0.09232798230377583</v>
+        <v>0.09232798169995182</v>
       </c>
       <c r="M4">
-        <v>0.02530561328892943</v>
+        <v>0.02530561220011893</v>
       </c>
       <c r="N4">
-        <v>5.821816269811399E-07</v>
+        <v>5.821816237524919E-07</v>
       </c>
       <c r="O4">
-        <v>0.004033713051880286</v>
+        <v>0.004033713033495647</v>
       </c>
       <c r="P4">
-        <v>0.007820575347097444</v>
+        <v>0.007820575330633754</v>
       </c>
       <c r="Q4">
-        <v>0.008528142729277112</v>
+        <v>0.008528142709901517</v>
       </c>
       <c r="R4">
-        <v>0.04847674905252428</v>
+        <v>0.04847674898763705</v>
       </c>
       <c r="S4">
-        <v>1.350617309066489E-08</v>
+        <v>1.350617304188677E-08</v>
       </c>
       <c r="T4">
-        <v>6.502239371183062E-06</v>
+        <v>6.502239334251814E-06</v>
       </c>
       <c r="U4">
-        <v>0.713691444222488</v>
+        <v>0.7136914437179616</v>
       </c>
     </row>
     <row r="5" spans="1:21">
       <c r="A5">
-        <v>1.990114183714344E-05</v>
+        <v>1.990114184636684E-05</v>
       </c>
       <c r="B5">
-        <v>0.0009382342564449473</v>
+        <v>0.0009382342590153366</v>
       </c>
       <c r="C5">
-        <v>0.0009099228058513458</v>
+        <v>0.0009099228062941555</v>
       </c>
       <c r="D5">
-        <v>0.001425914983706744</v>
+        <v>0.001425914984288039</v>
       </c>
       <c r="E5">
-        <v>0.03766559621953326</v>
+        <v>0.03766559625211642</v>
       </c>
       <c r="F5">
-        <v>0.000249366879335338</v>
+        <v>0.0002493668798670405</v>
       </c>
       <c r="G5">
-        <v>1.422003049931323E-06</v>
+        <v>1.422003050885556E-06</v>
       </c>
       <c r="H5">
-        <v>8.273262797909453E-08</v>
+        <v>8.27326279936185E-08</v>
       </c>
       <c r="I5">
-        <v>0.0002493386963023043</v>
+        <v>0.0002493386976604225</v>
       </c>
       <c r="J5">
-        <v>0.01541862309707684</v>
+        <v>0.01541862310225114</v>
       </c>
       <c r="K5">
-        <v>7.389266049321904E-05</v>
+        <v>7.389266068228228E-05</v>
       </c>
       <c r="L5">
-        <v>4.539447795485981E-05</v>
+        <v>4.539447792257557E-05</v>
       </c>
       <c r="M5">
-        <v>0.0001430800713796234</v>
+        <v>0.0001430800716067106</v>
       </c>
       <c r="N5">
-        <v>2.610494687531103E-09</v>
+        <v>2.61049468715177E-09</v>
       </c>
       <c r="O5">
-        <v>6.674361040074604E-06</v>
+        <v>6.674361045927493E-06</v>
       </c>
       <c r="P5">
-        <v>5.181196539057116E-06</v>
+        <v>5.181196548157087E-06</v>
       </c>
       <c r="Q5">
-        <v>5.312219782798571E-06</v>
+        <v>5.312219792401602E-06</v>
       </c>
       <c r="R5">
-        <v>2.435085332319509E-05</v>
+        <v>2.435085333744508E-05</v>
       </c>
       <c r="S5">
-        <v>1.00969069312286E-11</v>
+        <v>1.009690694271209E-11</v>
       </c>
       <c r="T5">
-        <v>9.467436326802303E-09</v>
+        <v>9.467436338596906E-09</v>
       </c>
       <c r="U5">
-        <v>0.0001060926688783609</v>
+        <v>0.0001060926690721167</v>
       </c>
     </row>
     <row r="6" spans="1:21">
       <c r="A6">
-        <v>0.01487647619738456</v>
+        <v>0.01470091481821093</v>
       </c>
       <c r="B6">
-        <v>0.8021553749414567</v>
+        <v>0.743171157824382</v>
       </c>
       <c r="C6">
-        <v>1.327153256067799</v>
+        <v>1.327090702980533</v>
       </c>
       <c r="D6">
-        <v>1.7068158447544</v>
+        <v>1.706688600565403</v>
       </c>
       <c r="E6">
-        <v>106.6846170548184</v>
+        <v>106.6649558749635</v>
       </c>
       <c r="F6">
-        <v>0.2158470253285262</v>
+        <v>0.2028813169602872</v>
       </c>
       <c r="G6">
-        <v>0.001892103667319825</v>
+        <v>0.001891765986143812</v>
       </c>
       <c r="H6">
-        <v>5.536292086781337E-05</v>
+        <v>5.553644755510688E-05</v>
       </c>
       <c r="I6">
-        <v>0.1584693968059006</v>
+        <v>0.1574755159375695</v>
       </c>
       <c r="J6">
-        <v>19.96068142400984</v>
+        <v>19.9506749530362</v>
       </c>
       <c r="K6">
-        <v>0.07956673552430611</v>
+        <v>0.09955149230798098</v>
       </c>
       <c r="L6">
-        <v>0.05479510634460989</v>
+        <v>0.05491246637992644</v>
       </c>
       <c r="M6">
-        <v>0.06855608635141974</v>
+        <v>0.06851265228942623</v>
       </c>
       <c r="N6">
-        <v>4.869778517684405E-07</v>
+        <v>4.740746318747297E-07</v>
       </c>
       <c r="O6">
-        <v>0.005254960579482482</v>
+        <v>0.005099328671482982</v>
       </c>
       <c r="P6">
-        <v>0.003644772678137158</v>
+        <v>0.003484290342377592</v>
       </c>
       <c r="Q6">
-        <v>0.003734555695777323</v>
+        <v>0.00357238207001844</v>
       </c>
       <c r="R6">
-        <v>0.01059279101569272</v>
+        <v>0.01065766073372687</v>
       </c>
       <c r="S6">
-        <v>9.951755113796805E-09</v>
+        <v>9.72893750602394E-09</v>
       </c>
       <c r="T6">
-        <v>9.149573896551949E-06</v>
+        <v>8.991574862392884E-06</v>
       </c>
       <c r="U6">
-        <v>0.06675054395638898</v>
+        <v>0.0646377268895148</v>
       </c>
     </row>
     <row r="7" spans="1:21">
       <c r="A7">
-        <v>0.007212653577458411</v>
+        <v>0.007212653564167183</v>
       </c>
       <c r="B7">
-        <v>2.429624047794676</v>
+        <v>2.429624047259497</v>
       </c>
       <c r="C7">
-        <v>0.06752648006391537</v>
+        <v>0.06752647852509119</v>
       </c>
       <c r="D7">
-        <v>0.08994381573546269</v>
+        <v>0.08994381376646937</v>
       </c>
       <c r="E7">
-        <v>6.66746677213344</v>
+        <v>6.667466640891591</v>
       </c>
       <c r="F7">
-        <v>1.333564838359862</v>
+        <v>1.333564838681391</v>
       </c>
       <c r="G7">
-        <v>0.0006703911621258679</v>
+        <v>0.000670391160098163</v>
       </c>
       <c r="H7">
-        <v>0.0001889270916820273</v>
+        <v>0.0001889270915868406</v>
       </c>
       <c r="I7">
-        <v>0.1039684478809841</v>
+        <v>0.1039684475086285</v>
       </c>
       <c r="J7">
-        <v>1.811884012315009</v>
+        <v>1.811883990301965</v>
       </c>
       <c r="K7">
-        <v>0.1764031595048527</v>
+        <v>0.1764031595782539</v>
       </c>
       <c r="L7">
-        <v>0.4914189854331464</v>
+        <v>0.4914189859643327</v>
       </c>
       <c r="M7">
-        <v>0.4496055757419847</v>
+        <v>0.449605575390108</v>
       </c>
       <c r="N7">
-        <v>7.318063723749755E-07</v>
+        <v>7.318063722913073E-07</v>
       </c>
       <c r="O7">
-        <v>0.003272784855892672</v>
+        <v>0.003272784855439596</v>
       </c>
       <c r="P7">
-        <v>0.006293594065732505</v>
+        <v>0.006293594089863855</v>
       </c>
       <c r="Q7">
-        <v>0.0068053117957845</v>
+        <v>0.00680531182234161</v>
       </c>
       <c r="R7">
-        <v>0.04477038568546028</v>
+        <v>0.04477038566595413</v>
       </c>
       <c r="S7">
-        <v>1.415166319419502E-08</v>
+        <v>1.415166319388641E-08</v>
       </c>
       <c r="T7">
-        <v>5.176531751581089E-06</v>
+        <v>5.176531744531417E-06</v>
       </c>
       <c r="U7">
-        <v>0.5972325444651254</v>
+        <v>0.5972325446278138</v>
       </c>
     </row>
     <row r="8" spans="1:21">
       <c r="A8">
-        <v>0.002276159143704745</v>
+        <v>0.002276159143760666</v>
       </c>
       <c r="B8">
-        <v>0.1639270602893103</v>
+        <v>0.1639270603016</v>
       </c>
       <c r="C8">
-        <v>0.01652985351791961</v>
+        <v>0.01652985352071682</v>
       </c>
       <c r="D8">
-        <v>0.02262727798712074</v>
+        <v>0.02262727799269667</v>
       </c>
       <c r="E8">
-        <v>4.073295796178372</v>
+        <v>4.073295798244034</v>
       </c>
       <c r="F8">
-        <v>0.06828633364471168</v>
+        <v>0.06828633362852393</v>
       </c>
       <c r="G8">
-        <v>4.842529424490695E-05</v>
+        <v>4.842529429113035E-05</v>
       </c>
       <c r="H8">
-        <v>9.173054775617075E-06</v>
+        <v>9.173054768014075E-06</v>
       </c>
       <c r="I8">
-        <v>0.02773514889374525</v>
+        <v>0.02773514899185536</v>
       </c>
       <c r="J8">
-        <v>0.3015071897092987</v>
+        <v>0.3015071899538789</v>
       </c>
       <c r="K8">
-        <v>0.009418586913249788</v>
+        <v>0.009418586929227616</v>
       </c>
       <c r="L8">
-        <v>0.002912706005344671</v>
+        <v>0.002912705965740758</v>
       </c>
       <c r="M8">
-        <v>0.009177714667426841</v>
+        <v>0.009177714666180361</v>
       </c>
       <c r="N8">
-        <v>8.146910469896238E-08</v>
+        <v>8.146910458019566E-08</v>
       </c>
       <c r="O8">
-        <v>0.0007630774467097285</v>
+        <v>0.0007630774469454877</v>
       </c>
       <c r="P8">
-        <v>0.0004023391403083294</v>
+        <v>0.0004023391400765199</v>
       </c>
       <c r="Q8">
-        <v>0.0004310165207489186</v>
+        <v>0.0004310165204611943</v>
       </c>
       <c r="R8">
-        <v>0.004277360177213933</v>
+        <v>0.004277360177517013</v>
       </c>
       <c r="S8">
-        <v>1.11593072263351E-09</v>
+        <v>1.115930722348116E-09</v>
       </c>
       <c r="T8">
-        <v>8.020479451512992E-07</v>
+        <v>8.020479456930242E-07</v>
       </c>
       <c r="U8">
-        <v>0.02633937977377411</v>
+        <v>0.02633937975998069</v>
       </c>
     </row>
     <row r="9" spans="1:21">
       <c r="A9">
-        <v>0.009221071056942965</v>
+        <v>0.00922107110714787</v>
       </c>
       <c r="B9">
-        <v>2.613780903101501</v>
+        <v>2.613780898759041</v>
       </c>
       <c r="C9">
-        <v>0.5237057592222769</v>
+        <v>0.5237057618790464</v>
       </c>
       <c r="D9">
-        <v>0.6594677402738565</v>
+        <v>0.6594677436671508</v>
       </c>
       <c r="E9">
-        <v>27.28412857335886</v>
+        <v>27.28412881833761</v>
       </c>
       <c r="F9">
-        <v>0.6726728546071143</v>
+        <v>0.6726728546860876</v>
       </c>
       <c r="G9">
-        <v>0.002558289068663733</v>
+        <v>0.002558289068751256</v>
       </c>
       <c r="H9">
-        <v>0.001769465491427594</v>
+        <v>0.001769465491286981</v>
       </c>
       <c r="I9">
-        <v>0.2443131003865778</v>
+        <v>0.2443130985056992</v>
       </c>
       <c r="J9">
-        <v>7.418088267862698</v>
+        <v>7.418088307517388</v>
       </c>
       <c r="K9">
-        <v>0.7194758509874447</v>
+        <v>0.7194758506151008</v>
       </c>
       <c r="L9">
-        <v>0.4853171479133225</v>
+        <v>0.4853171453511967</v>
       </c>
       <c r="M9">
-        <v>0.05620283075603141</v>
+        <v>0.05620282861282914</v>
       </c>
       <c r="N9">
-        <v>2.905570443204861E-06</v>
+        <v>2.905570443746194E-06</v>
       </c>
       <c r="O9">
-        <v>0.003190112527954236</v>
+        <v>0.003190112540555009</v>
       </c>
       <c r="P9">
-        <v>0.005521833667332823</v>
+        <v>0.005521833711621849</v>
       </c>
       <c r="Q9">
-        <v>0.005660185824332143</v>
+        <v>0.005660185869287248</v>
       </c>
       <c r="R9">
-        <v>0.04791135614076047</v>
+        <v>0.04791135609752091</v>
       </c>
       <c r="S9">
-        <v>1.67679837340846E-08</v>
+        <v>1.676798372066891E-08</v>
       </c>
       <c r="T9">
-        <v>7.051190020831274E-06</v>
+        <v>7.051190027458169E-06</v>
       </c>
       <c r="U9">
-        <v>0.141106683970008</v>
+        <v>0.1411066837593529</v>
       </c>
     </row>
     <row r="10" spans="1:21">
       <c r="A10">
-        <v>-0.0002334284192363329</v>
+        <v>-0.0002334284203782411</v>
       </c>
       <c r="B10">
-        <v>-2.074519898710646</v>
+        <v>-2.074519898869223</v>
       </c>
       <c r="C10">
-        <v>-0.1045206271866293</v>
+        <v>-0.1045206272657499</v>
       </c>
       <c r="D10">
-        <v>-0.1489782021742305</v>
+        <v>-0.1489782022768233</v>
       </c>
       <c r="E10">
-        <v>-4.958107931409636</v>
+        <v>-4.95810793907421</v>
       </c>
       <c r="F10">
-        <v>-0.01449179822498358</v>
+        <v>-0.01449179825184746</v>
       </c>
       <c r="G10">
-        <v>-3.05603592759752E-05</v>
+        <v>-3.056035941733786E-05</v>
       </c>
       <c r="H10">
-        <v>-8.164642706209499E-06</v>
+        <v>-8.164642713817194E-06</v>
       </c>
       <c r="I10">
-        <v>-0.02036293035417062</v>
+        <v>-0.02036293044148221</v>
       </c>
       <c r="J10">
-        <v>-1.426891947610796</v>
+        <v>-1.426891948799187</v>
       </c>
       <c r="K10">
-        <v>-0.001959240737569485</v>
+        <v>-0.001959240739471793</v>
       </c>
       <c r="L10">
-        <v>-0.0006602885979997226</v>
+        <v>-0.0006602886163587622</v>
       </c>
       <c r="M10">
-        <v>-0.002445511209755138</v>
+        <v>-0.002445511246535928</v>
       </c>
       <c r="N10">
-        <v>-3.056180823452182E-07</v>
+        <v>-3.056180823813644E-07</v>
       </c>
       <c r="O10">
-        <v>-8.807565323059154E-05</v>
+        <v>-8.807565369195743E-05</v>
       </c>
       <c r="P10">
-        <v>-0.0004170514883052746</v>
+        <v>-0.0004170514877888608</v>
       </c>
       <c r="Q10">
-        <v>-0.0004239245836358043</v>
+        <v>-0.0004239245831465096</v>
       </c>
       <c r="R10">
-        <v>-0.001746331221533756</v>
+        <v>-0.00174633122298686</v>
       </c>
       <c r="S10">
-        <v>-6.084104233409767E-09</v>
+        <v>-6.084104234443501E-09</v>
       </c>
       <c r="T10">
-        <v>-2.378044351077827E-06</v>
+        <v>-2.378044352078313E-06</v>
       </c>
       <c r="U10">
-        <v>-0.005864554612698555</v>
+        <v>-0.005864554621380406</v>
       </c>
     </row>
     <row r="11" spans="1:21">
       <c r="A11">
-        <v>-0.0002753427530157776</v>
+        <v>-0.0002753427538546185</v>
       </c>
       <c r="B11">
-        <v>-2.214513320562818</v>
+        <v>-2.214513320720515</v>
       </c>
       <c r="C11">
-        <v>-0.1870157236860329</v>
+        <v>-0.1870157237474837</v>
       </c>
       <c r="D11">
-        <v>-0.2569630900819905</v>
+        <v>-0.2569630901609884</v>
       </c>
       <c r="E11">
-        <v>-5.026237666173071</v>
+        <v>-5.026237671916464</v>
       </c>
       <c r="F11">
-        <v>-0.01608914941881772</v>
+        <v>-0.01608914944029192</v>
       </c>
       <c r="G11">
-        <v>-3.786325341940945E-05</v>
+        <v>-3.786325354041224E-05</v>
       </c>
       <c r="H11">
-        <v>-1.124408015307642E-05</v>
+        <v>-1.12440801601939E-05</v>
       </c>
       <c r="I11">
-        <v>-0.02671993709995337</v>
+        <v>-0.02671993718806872</v>
       </c>
       <c r="J11">
-        <v>-3.001157495115718</v>
+        <v>-3.001157495986913</v>
       </c>
       <c r="K11">
-        <v>-0.002177916342485462</v>
+        <v>-0.002177916340478867</v>
       </c>
       <c r="L11">
-        <v>-0.000894990289942378</v>
+        <v>-0.0008949902944258072</v>
       </c>
       <c r="M11">
-        <v>-0.002786364504788531</v>
+        <v>-0.002786364552059174</v>
       </c>
       <c r="N11">
-        <v>-4.507436073773974E-07</v>
+        <v>-4.507436074116182E-07</v>
       </c>
       <c r="O11">
-        <v>-0.0001036972075778597</v>
+        <v>-0.0001036972079359721</v>
       </c>
       <c r="P11">
-        <v>-0.0005020098415338838</v>
+        <v>-0.0005020098406025226</v>
       </c>
       <c r="Q11">
-        <v>-0.0005098603505827968</v>
+        <v>-0.000509860349668901</v>
       </c>
       <c r="R11">
-        <v>-0.002204769084495432</v>
+        <v>-0.002204769085929429</v>
       </c>
       <c r="S11">
-        <v>-6.572265904623624E-09</v>
+        <v>-6.57226590536247E-09</v>
       </c>
       <c r="T11">
-        <v>-2.899221370612668E-06</v>
+        <v>-2.899221371477344E-06</v>
       </c>
       <c r="U11">
-        <v>-0.006503775903018894</v>
+        <v>-0.006503775910062367</v>
       </c>
     </row>
     <row r="12" spans="1:21">
       <c r="A12">
-        <v>0.0005037847466430807</v>
+        <v>0.0005037847656474417</v>
       </c>
       <c r="B12">
-        <v>0.2084098694327519</v>
+        <v>0.2084098714359555</v>
       </c>
       <c r="C12">
-        <v>0.01250017987953924</v>
+        <v>0.01250018077764688</v>
       </c>
       <c r="D12">
-        <v>0.01630201309091486</v>
+        <v>0.01630201424449873</v>
       </c>
       <c r="E12">
-        <v>0.6245138305579402</v>
+        <v>0.6245139144575079</v>
       </c>
       <c r="F12">
-        <v>0.05471552675193321</v>
+        <v>0.05471552734923582</v>
       </c>
       <c r="G12">
-        <v>0.0001634954727692901</v>
+        <v>0.000163495474223792</v>
       </c>
       <c r="H12">
-        <v>1.188510952344638E-05</v>
+        <v>1.188510965522298E-05</v>
       </c>
       <c r="I12">
-        <v>0.01662770325107313</v>
+        <v>0.01662770419780768</v>
       </c>
       <c r="J12">
-        <v>0.2947845020309169</v>
+        <v>0.2947845154447926</v>
       </c>
       <c r="K12">
-        <v>0.06328972170809839</v>
+        <v>0.06328972177475187</v>
       </c>
       <c r="L12">
-        <v>0.04349396300235626</v>
+        <v>0.04349396356762832</v>
       </c>
       <c r="M12">
-        <v>0.002096436363283348</v>
+        <v>0.002096436491751902</v>
       </c>
       <c r="N12">
-        <v>2.090750677630303E-07</v>
+        <v>2.090750688391444E-07</v>
       </c>
       <c r="O12">
-        <v>0.0001699537496075965</v>
+        <v>0.0001699537574775721</v>
       </c>
       <c r="P12">
-        <v>0.0004089896559718349</v>
+        <v>0.0004089896686911075</v>
       </c>
       <c r="Q12">
-        <v>0.0004182080312476311</v>
+        <v>0.0004182080443079319</v>
       </c>
       <c r="R12">
-        <v>0.003495028334459833</v>
+        <v>0.003495028350476808</v>
       </c>
       <c r="S12">
-        <v>1.257077542404081E-09</v>
+        <v>1.257077561418727E-09</v>
       </c>
       <c r="T12">
-        <v>4.313872765064571E-07</v>
+        <v>4.313872895604476E-07</v>
       </c>
       <c r="U12">
-        <v>0.01031957054621836</v>
+        <v>0.01031957075552154</v>
       </c>
     </row>
     <row r="13" spans="1:21">
       <c r="A13">
-        <v>0.01162068853366516</v>
+        <v>0.011620688679358</v>
       </c>
       <c r="B13">
-        <v>3.466886165836328</v>
+        <v>3.46688616883342</v>
       </c>
       <c r="C13">
-        <v>0.70861619235489</v>
+        <v>0.7086162010761681</v>
       </c>
       <c r="D13">
-        <v>0.8912456429110691</v>
+        <v>0.8912456540397625</v>
       </c>
       <c r="E13">
-        <v>36.4212533111198</v>
+        <v>36.42125405736589</v>
       </c>
       <c r="F13">
-        <v>0.8974062371101224</v>
+        <v>0.8974062396081106</v>
       </c>
       <c r="G13">
-        <v>0.003207825050433908</v>
+        <v>0.003207825059484286</v>
       </c>
       <c r="H13">
-        <v>0.001413958191013651</v>
+        <v>0.001413958191516022</v>
       </c>
       <c r="I13">
-        <v>0.3160316946972483</v>
+        <v>0.3160316956118051</v>
       </c>
       <c r="J13">
-        <v>9.502532570551066</v>
+        <v>9.502532697216395</v>
       </c>
       <c r="K13">
-        <v>0.9889259696164078</v>
+        <v>0.9889259694185847</v>
       </c>
       <c r="L13">
-        <v>0.6648528968370724</v>
+        <v>0.664852893101184</v>
       </c>
       <c r="M13">
-        <v>0.05724205262557135</v>
+        <v>0.05724205172637147</v>
       </c>
       <c r="N13">
-        <v>3.63871781771318E-06</v>
+        <v>3.638717820307261E-06</v>
       </c>
       <c r="O13">
-        <v>0.003997746807853137</v>
+        <v>0.003997746854883077</v>
       </c>
       <c r="P13">
-        <v>0.007253941222927495</v>
+        <v>0.007253941299558085</v>
       </c>
       <c r="Q13">
-        <v>0.00743266476975125</v>
+        <v>0.007432664848214353</v>
       </c>
       <c r="R13">
-        <v>0.05870154965953023</v>
+        <v>0.05870154965050627</v>
       </c>
       <c r="S13">
-        <v>2.217736208777625E-08</v>
+        <v>2.217736212578787E-08</v>
       </c>
       <c r="T13">
-        <v>9.091799538367328E-06</v>
+        <v>9.091799602660407E-06</v>
       </c>
       <c r="U13">
-        <v>0.1818204876124281</v>
+        <v>0.1818204883493696</v>
       </c>
     </row>
     <row r="14" spans="1:21">
       <c r="A14">
-        <v>0.0001089981346077306</v>
+        <v>0.0001182622969800845</v>
       </c>
       <c r="B14">
-        <v>0.0319209800123027</v>
+        <v>0.03461772790416727</v>
       </c>
       <c r="C14">
-        <v>0.001146021117710704</v>
+        <v>0.00173947606523207</v>
       </c>
       <c r="D14">
-        <v>0.001528371434469489</v>
+        <v>0.002274848382549961</v>
       </c>
       <c r="E14">
-        <v>0.140916601029331</v>
+        <v>0.1727080804683562</v>
       </c>
       <c r="F14">
-        <v>0.009235705662802848</v>
+        <v>0.009931553882916229</v>
       </c>
       <c r="G14">
-        <v>8.121734288418385E-06</v>
+        <v>1.041736738875662E-05</v>
       </c>
       <c r="H14">
-        <v>7.484272557189666E-07</v>
+        <v>9.033479523494275E-07</v>
       </c>
       <c r="I14">
-        <v>0.001269325801208072</v>
+        <v>0.001523289931571321</v>
       </c>
       <c r="J14">
-        <v>0.03464215117792713</v>
+        <v>0.04214076704142716</v>
       </c>
       <c r="K14">
-        <v>0.002201629119753418</v>
+        <v>0.002968783016868141</v>
       </c>
       <c r="L14">
-        <v>0.02035218807187552</v>
+        <v>0.02088456535833128</v>
       </c>
       <c r="M14">
-        <v>0.0002599423440359375</v>
+        <v>0.0003024705428565436</v>
       </c>
       <c r="N14">
-        <v>2.976256636305896E-08</v>
+        <v>3.236197836003222E-08</v>
       </c>
       <c r="O14">
-        <v>4.732859114074083E-05</v>
+        <v>5.050228399036261E-05</v>
       </c>
       <c r="P14">
-        <v>0.0001194701798583104</v>
+        <v>0.0001251274064359056</v>
       </c>
       <c r="Q14">
-        <v>0.000123676928982182</v>
+        <v>0.0001294711491188871</v>
       </c>
       <c r="R14">
-        <v>0.0001758711232190038</v>
+        <v>0.0002207392844639658</v>
       </c>
       <c r="S14">
-        <v>3.169270674312388E-10</v>
+        <v>3.343011039605736E-10</v>
       </c>
       <c r="T14">
-        <v>7.201512781426945E-08</v>
+        <v>7.917687581491705E-08</v>
       </c>
       <c r="U14">
-        <v>0.002907866090638804</v>
+        <v>0.003045820597217346</v>
       </c>
     </row>
     <row r="15" spans="1:21">
       <c r="A15">
-        <v>0.0008592200707292371</v>
+        <v>0.0008592200709159755</v>
       </c>
       <c r="B15">
-        <v>0.01698343227861172</v>
+        <v>0.01698343233464214</v>
       </c>
       <c r="C15">
-        <v>0.007438220710385387</v>
+        <v>0.007438220724507312</v>
       </c>
       <c r="D15">
-        <v>0.01012030671155281</v>
+        <v>0.01012030673054942</v>
       </c>
       <c r="E15">
-        <v>1.795858858486629</v>
+        <v>1.795858860111199</v>
       </c>
       <c r="F15">
-        <v>0.004524194717299333</v>
+        <v>0.004524194728982195</v>
       </c>
       <c r="G15">
-        <v>1.307100761151285E-05</v>
+        <v>1.30710076508932E-05</v>
       </c>
       <c r="H15">
-        <v>2.273305258449472E-06</v>
+        <v>2.273305257306316E-06</v>
       </c>
       <c r="I15">
-        <v>0.01090034292644805</v>
+        <v>0.01090034296838662</v>
       </c>
       <c r="J15">
-        <v>0.1233399749803694</v>
+        <v>0.1233399752475698</v>
       </c>
       <c r="K15">
-        <v>0.001944046810333388</v>
+        <v>0.001944046816073654</v>
       </c>
       <c r="L15">
-        <v>0.0005514112839303504</v>
+        <v>0.0005514112818371826</v>
       </c>
       <c r="M15">
-        <v>0.003534619862585602</v>
+        <v>0.003534619866667281</v>
       </c>
       <c r="N15">
-        <v>9.648030121628036E-09</v>
+        <v>9.648030088724651E-09</v>
       </c>
       <c r="O15">
-        <v>0.0002742214946633026</v>
+        <v>0.0002742214947729925</v>
       </c>
       <c r="P15">
-        <v>6.294455906092855E-05</v>
+        <v>6.294455905919644E-05</v>
       </c>
       <c r="Q15">
-        <v>6.537187984712411E-05</v>
+        <v>6.537187985593704E-05</v>
       </c>
       <c r="R15">
-        <v>0.0009958478182162569</v>
+        <v>0.0009958478184956701</v>
       </c>
       <c r="S15">
-        <v>2.78526925229281E-10</v>
+        <v>2.785269254650216E-10</v>
       </c>
       <c r="T15">
-        <v>2.545109251624745E-07</v>
+        <v>2.54510925484211E-07</v>
       </c>
       <c r="U15">
-        <v>0.001984452695740464</v>
+        <v>0.001984452698667129</v>
       </c>
     </row>
     <row r="16" spans="1:21">
       <c r="A16">
-        <v>5.152698596877048E-05</v>
+        <v>5.152698657685552E-05</v>
       </c>
       <c r="B16">
-        <v>0.01562895859391053</v>
+        <v>0.01562895861071079</v>
       </c>
       <c r="C16">
-        <v>0.003280850393437926</v>
+        <v>0.003280850428017565</v>
       </c>
       <c r="D16">
-        <v>0.004121580230129419</v>
+        <v>0.004121580274948054</v>
       </c>
       <c r="E16">
-        <v>0.1675159676440827</v>
+        <v>0.16751597092706</v>
       </c>
       <c r="F16">
-        <v>0.004035239643002442</v>
+        <v>0.004035239652775173</v>
       </c>
       <c r="G16">
-        <v>1.319445444371436E-05</v>
+        <v>1.319445448066351E-05</v>
       </c>
       <c r="H16">
-        <v>8.967658083060264E-07</v>
+        <v>8.9676581020899E-07</v>
       </c>
       <c r="I16">
-        <v>0.001386874429440236</v>
+        <v>0.001386874441492083</v>
       </c>
       <c r="J16">
-        <v>0.04098247089868465</v>
+        <v>0.0409824714403017</v>
       </c>
       <c r="K16">
-        <v>0.004494110598424343</v>
+        <v>0.004494110598717755</v>
       </c>
       <c r="L16">
-        <v>0.003112725605413457</v>
+        <v>0.003112725618188714</v>
       </c>
       <c r="M16">
-        <v>0.0002282867216807909</v>
+        <v>0.0002282867167111859</v>
       </c>
       <c r="N16">
-        <v>1.517327570349823E-08</v>
+        <v>1.517327571125803E-08</v>
       </c>
       <c r="O16">
-        <v>1.75685767940917E-05</v>
+        <v>1.756857698396383E-05</v>
       </c>
       <c r="P16">
-        <v>3.243214836180151E-05</v>
+        <v>3.24321486201749E-05</v>
       </c>
       <c r="Q16">
-        <v>3.321219469471796E-05</v>
+        <v>3.321219495968852E-05</v>
       </c>
       <c r="R16">
-        <v>0.000261150283663587</v>
+        <v>0.000261150283775666</v>
       </c>
       <c r="S16">
-        <v>1.00031328093911E-10</v>
+        <v>1.000313285082893E-10</v>
       </c>
       <c r="T16">
-        <v>4.014411366635106E-08</v>
+        <v>4.014411396520964E-08</v>
       </c>
       <c r="U16">
-        <v>0.0007925119110060544</v>
+        <v>0.0007925119133273682</v>
       </c>
     </row>
     <row r="17" spans="1:21">
       <c r="A17">
-        <v>0.0002593345362700152</v>
+        <v>0.0002593345356480298</v>
       </c>
       <c r="B17">
-        <v>0.1887243721939485</v>
+        <v>0.1887243720719814</v>
       </c>
       <c r="C17">
-        <v>0.004759688387569547</v>
+        <v>0.004759688370749053</v>
       </c>
       <c r="D17">
-        <v>0.008440847421735948</v>
+        <v>0.008440847399770655</v>
       </c>
       <c r="E17">
-        <v>3.666851701078496</v>
+        <v>3.666851699833645</v>
       </c>
       <c r="F17">
-        <v>0.05968962210485167</v>
+        <v>0.05968962207809381</v>
       </c>
       <c r="G17">
-        <v>1.313613310449632E-05</v>
+        <v>1.313613305159146E-05</v>
       </c>
       <c r="H17">
-        <v>5.253937550820139E-06</v>
+        <v>5.253937542370948E-06</v>
       </c>
       <c r="I17">
-        <v>0.009532334303084783</v>
+        <v>0.009532334251522268</v>
       </c>
       <c r="J17">
-        <v>0.1495014191475902</v>
+        <v>0.1495014189258626</v>
       </c>
       <c r="K17">
-        <v>0.003059727253826382</v>
+        <v>0.003059727250138018</v>
       </c>
       <c r="L17">
-        <v>0.007182047950830643</v>
+        <v>0.007182047960285501</v>
       </c>
       <c r="M17">
-        <v>0.003818690891614587</v>
+        <v>0.003818690867328836</v>
       </c>
       <c r="N17">
-        <v>8.613361480416993E-08</v>
+        <v>8.613361473725474E-08</v>
       </c>
       <c r="O17">
-        <v>0.0001343399062268145</v>
+        <v>0.0001343399059431482</v>
       </c>
       <c r="P17">
-        <v>0.0002997807847321384</v>
+        <v>0.0002997807842842288</v>
       </c>
       <c r="Q17">
-        <v>0.0003393528925386866</v>
+        <v>0.000339352892082781</v>
       </c>
       <c r="R17">
-        <v>0.0003055525506420393</v>
+        <v>0.0003055525497032402</v>
       </c>
       <c r="S17">
-        <v>7.458483357982706E-10</v>
+        <v>7.458483352863012E-10</v>
       </c>
       <c r="T17">
-        <v>3.26331477571659E-07</v>
+        <v>3.263314770559269E-07</v>
       </c>
       <c r="U17">
-        <v>0.0262108525503966</v>
+        <v>0.0262108525391526</v>
       </c>
     </row>
     <row r="18" spans="1:21">
       <c r="A18">
-        <v>0.001909324823451467</v>
+        <v>0.001909324767137872</v>
       </c>
       <c r="B18">
-        <v>0.4482228378132458</v>
+        <v>0.4482228282362249</v>
       </c>
       <c r="C18">
-        <v>0.04172316295798531</v>
+        <v>0.04172316158099756</v>
       </c>
       <c r="D18">
-        <v>0.05532886085363788</v>
+        <v>0.05532885908780858</v>
       </c>
       <c r="E18">
-        <v>1.430225728491892</v>
+        <v>1.43022564445517</v>
       </c>
       <c r="F18">
-        <v>0.112182749745515</v>
+        <v>0.1121827474060807</v>
       </c>
       <c r="G18">
-        <v>0.0003351893765502849</v>
+        <v>0.0003351893732714672</v>
       </c>
       <c r="H18">
-        <v>0.002654898934453429</v>
+        <v>0.002654898933681861</v>
       </c>
       <c r="I18">
-        <v>0.02388455148543661</v>
+        <v>0.02388454811876981</v>
       </c>
       <c r="J18">
-        <v>1.084906551005025</v>
+        <v>1.084906536487747</v>
       </c>
       <c r="K18">
-        <v>0.0403597936495524</v>
+        <v>0.04035979330101678</v>
       </c>
       <c r="L18">
-        <v>0.01655610083738879</v>
+        <v>0.01655609980402628</v>
       </c>
       <c r="M18">
-        <v>0.005003063661011535</v>
+        <v>0.005003061954693096</v>
       </c>
       <c r="N18">
-        <v>4.895991399298166E-07</v>
+        <v>4.895991323168867E-07</v>
       </c>
       <c r="O18">
-        <v>0.0009785927556415516</v>
+        <v>0.0009785927308701933</v>
       </c>
       <c r="P18">
-        <v>0.001288717533402433</v>
+        <v>0.001288717479764067</v>
       </c>
       <c r="Q18">
-        <v>0.001337147747139182</v>
+        <v>0.001337147691953199</v>
       </c>
       <c r="R18">
-        <v>0.003536725632869703</v>
+        <v>0.003536725539526478</v>
       </c>
       <c r="S18">
-        <v>2.259613687927752E-09</v>
+        <v>2.25961362858125E-09</v>
       </c>
       <c r="T18">
-        <v>1.367271741971704E-06</v>
+        <v>1.367271702767088E-06</v>
       </c>
       <c r="U18">
-        <v>0.02772364851372804</v>
+        <v>0.02772364746654427</v>
       </c>
     </row>
   </sheetData>

--- a/results/case2_cut_off/data_uniquie_case2_cut_off_recipe.xlsx
+++ b/results/case2_cut_off/data_uniquie_case2_cut_off_recipe.xlsx
@@ -14,69 +14,120 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'acidification: terrestrial', 'terrestrial acidification potential (TAP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'climate change', 'global warming potential (GWP1000)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'ecotoxicity: freshwater', 'freshwater ecotoxicity potential (FETP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'ecotoxicity: marine', 'marine ecotoxicity potential (METP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'ecotoxicity: terrestrial', 'terrestrial ecotoxicity potential (TETP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'energy resources: non-renewable, fossil', 'fossil fuel potential (FFP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'eutrophication: freshwater', 'freshwater eutrophication potential (FEP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'eutrophication: marine', 'marine eutrophication potential (MEP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'human toxicity: carcinogenic', 'human toxicity potential (HTPc)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'human toxicity: non-carcinogenic', 'human toxicity potential (HTPnc)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'ionising radiation', 'ionising radiation potential (IRP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'land use', 'agricultural land occupation (LOP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'material resources: metals/minerals', 'surplus ore potential (SOP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'ozone depletion', 'ozone depletion potential (ODPinfinite)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'particulate matter formation', 'particulate matter formation potential (PMFP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'photochemical oxidant formation: human health', 'photochemical oxidant formation potential: humans (HOFP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'photochemical oxidant formation: terrestrial ecosystems', 'photochemical oxidant formation potential: ecosystems (EOFP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'water use', 'water consumption potential (WCP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, endpoint (H) Runes edition', 'total: ecosystem quality', 'ecosystem quality')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, endpoint (H) Runes edition', 'total: human health', 'human health')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, endpoint (H) Runes edition', 'total: natural resources', 'natural resources')</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'acidification: terrestrial', 'terrestrial acidification potential (TAP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'climate change', 'global warming potential (GWP1000)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'ecotoxicity: freshwater', 'freshwater ecotoxicity potential (FETP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'ecotoxicity: marine', 'marine ecotoxicity potential (METP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'ecotoxicity: terrestrial', 'terrestrial ecotoxicity potential (TETP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'energy resources: non-renewable, fossil', 'fossil fuel potential (FFP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'eutrophication: freshwater', 'freshwater eutrophication potential (FEP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'eutrophication: marine', 'marine eutrophication potential (MEP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'human toxicity: carcinogenic', 'human toxicity potential (HTPc)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'human toxicity: non-carcinogenic', 'human toxicity potential (HTPnc)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'ionising radiation', 'ionising radiation potential (IRP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'land use', 'agricultural land occupation (LOP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'material resources: metals/minerals', 'surplus ore potential (SOP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'ozone depletion', 'ozone depletion potential (ODPinfinite)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'particulate matter formation', 'particulate matter formation potential (PMFP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'photochemical oxidant formation: human health', 'photochemical oxidant formation potential: humans (HOFP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'photochemical oxidant formation: terrestrial ecosystems', 'photochemical oxidant formation potential: ecosystems (EOFP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'water use', 'water consumption potential (WCP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, endpoint (H) - no biogenic', 'total: ecosystem quality', 'ecosystem quality')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, endpoint (H) - no biogenic', 'total: human health', 'human health')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, endpoint (H) - no biogenic', 'total: natural resources', 'natural resources')</t>
+  </si>
+  <si>
+    <t>'H200 SU' (unit, GLO, None)</t>
+  </si>
+  <si>
+    <t>'MUD manufacturing' (unit, GLO, None)</t>
+  </si>
+  <si>
+    <t>'MUD packgaging materials' (kilogram, GLO, None)</t>
+  </si>
+  <si>
+    <t>'MUD raw materials' (unit, GLO, None)</t>
+  </si>
+  <si>
+    <t>'SUD manufacturing' (unit, GLO, None)</t>
+  </si>
+  <si>
+    <t>'SUD packgaging materials' (kilogram, GLO, None)</t>
+  </si>
+  <si>
+    <t>'SUD raw materials' (unit, GLO, None)</t>
+  </si>
+  <si>
+    <t>'autoclave' (unit, DK, None)</t>
+  </si>
+  <si>
+    <t>'eol MUD' (kilogram, GLO, None)</t>
+  </si>
+  <si>
+    <t>'eol SUD' (kilogram, GLO, None)</t>
+  </si>
+  <si>
+    <t>'market for electricity, high voltage' (kilowatt hour, DK, None)</t>
+  </si>
+  <si>
+    <t>'mechanical disinfection' (unit, DK, None)</t>
+  </si>
+  <si>
+    <t>'mixed heating grid' (megajoule, DK, None)</t>
+  </si>
+  <si>
+    <t>'scalpel' (unit, GLO, None)</t>
+  </si>
+  <si>
+    <t>'surgery use' (unit, DK, None)</t>
+  </si>
+  <si>
+    <t>'transport' (ton kilometer, GLO, None)</t>
+  </si>
+  <si>
+    <t>'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)</t>
   </si>
 </sst>
 </file>
@@ -434,1179 +485,1230 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U18"/>
+  <dimension ref="A1:V18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:21">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:22">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21">
-      <c r="A2">
+    <row r="2" spans="1:22">
+      <c r="A2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2">
         <v>0.0003425781623884415</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>0.3281570466931743</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>0.01184520234570621</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>0.0170749990211199</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>0.717756246145474</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>0.115699332878513</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>3.298847121460018E-06</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>3.870076823661328E-06</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>0.003991521966311119</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>0.126418398186744</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>-0.006059359525740825</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>-0.05756637405232852</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>0.001395845316232649</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>-5.518284975745522E-08</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>0.0001540992494267423</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>0.0002202273038038324</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>0.0002420691444768594</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>0.001015922592381875</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>5.328908648505404E-10</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>4.457882813141255E-07</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>0.04768744207211895</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
-      <c r="A3">
+    <row r="3" spans="1:22">
+      <c r="A3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3">
         <v>0.0006720016567499758</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>0.1822838754202795</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>0.04125832725290141</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>0.0520185743799752</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>2.319406782308865</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>0.04712924038688626</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>0.0001769691982145868</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>9.346028900427884E-05</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>0.01724853646469634</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>0.5708937271657222</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>0.05102670421992616</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>0.034407919429011</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>0.003585839305693599</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>1.955897126204152E-07</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>0.0002307194056652674</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>0.0003893896539316574</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>0.0003990601703875094</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>0.003187288210232879</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>1.188712156065391E-09</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>5.094927295635019E-07</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>0.009766875812259697</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
-      <c r="A4">
+    <row r="4" spans="1:22">
+      <c r="A4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4">
         <v>0.009064027517111427</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>3.206511200458488</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>0.08084504266178817</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>0.1082171985678932</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>7.507900364373238</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>1.89875087031412</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>0.0007928509551372221</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>0.0001122478951027875</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>0.1304213839177061</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>1.940271954263387</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>0.2031594529083666</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>0.09232798169995182</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>0.02530561220011893</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>5.821816237524919E-07</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>0.004033713033495647</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>0.007820575330633754</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>0.008528142709901517</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>0.04847674898763705</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>1.350617304188677E-08</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>6.502239334251814E-06</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>0.7136914437179616</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
-      <c r="A5">
+    <row r="5" spans="1:22">
+      <c r="A5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5">
         <v>1.990114184636684E-05</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>0.0009382342590153366</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>0.0009099228062941555</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>0.001425914984288039</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>0.03766559625211642</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>0.0002493668798670405</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>1.422003050885556E-06</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>8.27326279936185E-08</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>0.0002493386976604225</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>0.01541862310225114</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>7.389266068228228E-05</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>4.539447792257557E-05</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>0.0001430800716067106</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>2.61049468715177E-09</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>6.674361045927493E-06</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>5.181196548157087E-06</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>5.312219792401602E-06</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>2.435085333744508E-05</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>1.009690694271209E-11</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>9.467436338596906E-09</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>0.0001060926690721167</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
-      <c r="A6">
+    <row r="6" spans="1:22">
+      <c r="A6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6">
         <v>0.01470091481821093</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>0.743171157824382</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>1.327090702980533</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>1.706688600565403</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>106.6649558749635</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>0.2028813169602872</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>0.001891765986143812</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>5.553644755510688E-05</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>0.1574755159375695</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>19.9506749530362</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>0.09955149230798098</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>0.05491246637992644</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>0.06851265228942623</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>4.740746318747297E-07</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>0.005099328671482982</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>0.003484290342377592</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>0.00357238207001844</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>0.01065766073372687</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>9.72893750602394E-09</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>8.991574862392884E-06</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>0.0646377268895148</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
-      <c r="A7">
+    <row r="7" spans="1:22">
+      <c r="A7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7">
         <v>0.007212653564167183</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>2.429624047259497</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>0.06752647852509119</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>0.08994381376646937</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>6.667466640891591</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>1.333564838681391</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>0.000670391160098163</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>0.0001889270915868406</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>0.1039684475086285</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>1.811883990301965</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>0.1764031595782539</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>0.4914189859643327</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>0.449605575390108</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>7.318063722913073E-07</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>0.003272784855439596</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>0.006293594089863855</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>0.00680531182234161</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>0.04477038566595413</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>1.415166319388641E-08</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>5.176531744531417E-06</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>0.5972325446278138</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
-      <c r="A8">
+    <row r="8" spans="1:22">
+      <c r="A8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8">
         <v>0.002276159143760666</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>0.1639270603016</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>0.01652985352071682</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>0.02262727799269667</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>4.073295798244034</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>0.06828633362852393</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>4.842529429113035E-05</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>9.173054768014075E-06</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>0.02773514899185536</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>0.3015071899538789</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>0.009418586929227616</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>0.002912705965740758</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>0.009177714666180361</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>8.146910458019566E-08</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>0.0007630774469454877</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>0.0004023391400765199</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>0.0004310165204611943</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>0.004277360177517013</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>1.115930722348116E-09</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>8.020479456930242E-07</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>0.02633937975998069</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
-      <c r="A9">
+    <row r="9" spans="1:22">
+      <c r="A9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9">
         <v>0.00922107110714787</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>2.613780898759041</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>0.5237057618790464</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>0.6594677436671508</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>27.28412881833761</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>0.6726728546860876</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>0.002558289068751256</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>0.001769465491286981</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>0.2443130985056992</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>7.418088307517388</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>0.7194758506151008</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>0.4853171453511967</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>0.05620282861282914</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>2.905570443746194E-06</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>0.003190112540555009</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>0.005521833711621849</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>0.005660185869287248</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>0.04791135609752091</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>1.676798372066891E-08</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>7.051190027458169E-06</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>0.1411066837593529</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
-      <c r="A10">
+    <row r="10" spans="1:22">
+      <c r="A10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10">
         <v>-0.0002334284203782411</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>-2.074519898869223</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>-0.1045206272657499</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>-0.1489782022768233</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>-4.95810793907421</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>-0.01449179825184746</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>-3.056035941733786E-05</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>-8.164642713817194E-06</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>-0.02036293044148221</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>-1.426891948799187</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>-0.001959240739471793</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>-0.0006602886163587622</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>-0.002445511246535928</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>-3.056180823813644E-07</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>-8.807565369195743E-05</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>-0.0004170514877888608</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>-0.0004239245831465096</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>-0.00174633122298686</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>-6.084104234443501E-09</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>-2.378044352078313E-06</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>-0.005864554621380406</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
-      <c r="A11">
+    <row r="11" spans="1:22">
+      <c r="A11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11">
         <v>-0.0002753427538546185</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>-2.214513320720515</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>-0.1870157237474837</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>-0.2569630901609884</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>-5.026237671916464</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>-0.01608914944029192</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>-3.786325354041224E-05</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>-1.12440801601939E-05</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>-0.02671993718806872</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>-3.001157495986913</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>-0.002177916340478867</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>-0.0008949902944258072</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>-0.002786364552059174</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>-4.507436074116182E-07</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>-0.0001036972079359721</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>-0.0005020098406025226</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>-0.000509860349668901</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>-0.002204769085929429</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>-6.57226590536247E-09</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>-2.899221371477344E-06</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>-0.006503775910062367</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
-      <c r="A12">
+    <row r="12" spans="1:22">
+      <c r="A12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12">
         <v>0.0005037847656474417</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>0.2084098714359555</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>0.01250018077764688</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>0.01630201424449873</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>0.6245139144575079</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>0.05471552734923582</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>0.000163495474223792</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>1.188510965522298E-05</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>0.01662770419780768</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>0.2947845154447926</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>0.06328972177475187</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>0.04349396356762832</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>0.002096436491751902</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>2.090750688391444E-07</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>0.0001699537574775721</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>0.0004089896686911075</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>0.0004182080443079319</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>0.003495028350476808</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>1.257077561418727E-09</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>4.313872895604476E-07</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>0.01031957075552154</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
-      <c r="A13">
+    <row r="13" spans="1:22">
+      <c r="A13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13">
         <v>0.011620688679358</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>3.46688616883342</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>0.7086162010761681</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>0.8912456540397625</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>36.42125405736589</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>0.8974062396081106</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>0.003207825059484286</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>0.001413958191516022</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>0.3160316956118051</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>9.502532697216395</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>0.9889259694185847</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>0.664852893101184</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>0.05724205172637147</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>3.638717820307261E-06</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>0.003997746854883077</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>0.007253941299558085</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>0.007432664848214353</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>0.05870154965050627</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>2.217736212578787E-08</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>9.091799602660407E-06</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>0.1818204883493696</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
-      <c r="A14">
+    <row r="14" spans="1:22">
+      <c r="A14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14">
         <v>0.0001182622969800845</v>
       </c>
-      <c r="B14">
+      <c r="C14">
         <v>0.03461772790416727</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>0.00173947606523207</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>0.002274848382549961</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>0.1727080804683562</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>0.009931553882916229</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>1.041736738875662E-05</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>9.033479523494275E-07</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>0.001523289931571321</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>0.04214076704142716</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>0.002968783016868141</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>0.02088456535833128</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>0.0003024705428565436</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>3.236197836003222E-08</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>5.050228399036261E-05</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>0.0001251274064359056</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>0.0001294711491188871</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>0.0002207392844639658</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>3.343011039605736E-10</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>7.917687581491705E-08</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>0.003045820597217346</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
-      <c r="A15">
+    <row r="15" spans="1:22">
+      <c r="A15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15">
         <v>0.0008592200709159755</v>
       </c>
-      <c r="B15">
+      <c r="C15">
         <v>0.01698343233464214</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>0.007438220724507312</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>0.01012030673054942</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>1.795858860111199</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>0.004524194728982195</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>1.30710076508932E-05</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>2.273305257306316E-06</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>0.01090034296838662</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>0.1233399752475698</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>0.001944046816073654</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>0.0005514112818371826</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>0.003534619866667281</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>9.648030088724651E-09</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>0.0002742214947729925</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>6.294455905919644E-05</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>6.537187985593704E-05</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>0.0009958478184956701</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>2.785269254650216E-10</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>2.54510925484211E-07</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>0.001984452698667129</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
-      <c r="A16">
+    <row r="16" spans="1:22">
+      <c r="A16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16">
         <v>5.152698657685552E-05</v>
       </c>
-      <c r="B16">
+      <c r="C16">
         <v>0.01562895861071079</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>0.003280850428017565</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>0.004121580274948054</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>0.16751597092706</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>0.004035239652775173</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>1.319445448066351E-05</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>8.9676581020899E-07</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>0.001386874441492083</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>0.0409824714403017</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>0.004494110598717755</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>0.003112725618188714</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>0.0002282867167111859</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>1.517327571125803E-08</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>1.756857698396383E-05</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>3.24321486201749E-05</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>3.321219495968852E-05</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>0.000261150283775666</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>1.000313285082893E-10</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>4.014411396520964E-08</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>0.0007925119133273682</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
-      <c r="A17">
+    <row r="17" spans="1:22">
+      <c r="A17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17">
         <v>0.0002593345356480298</v>
       </c>
-      <c r="B17">
+      <c r="C17">
         <v>0.1887243720719814</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>0.004759688370749053</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>0.008440847399770655</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>3.666851699833645</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>0.05968962207809381</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>1.313613305159146E-05</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>5.253937542370948E-06</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>0.009532334251522268</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>0.1495014189258626</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>0.003059727250138018</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>0.007182047960285501</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>0.003818690867328836</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>8.613361473725474E-08</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>0.0001343399059431482</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>0.0002997807842842288</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>0.000339352892082781</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>0.0003055525497032402</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>7.458483352863012E-10</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>3.263314770559269E-07</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>0.0262108525391526</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
-      <c r="A18">
+    <row r="18" spans="1:22">
+      <c r="A18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18">
         <v>0.001909324767137872</v>
       </c>
-      <c r="B18">
+      <c r="C18">
         <v>0.4482228282362249</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>0.04172316158099756</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>0.05532885908780858</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>1.43022564445517</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>0.1121827474060807</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>0.0003351893732714672</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>0.002654898933681861</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>0.02388454811876981</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>1.084906536487747</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>0.04035979330101678</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>0.01655609980402628</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>0.005003061954693096</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>4.895991323168867E-07</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>0.0009785927308701933</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>0.001288717479764067</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>0.001337147691953199</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>0.003536725539526478</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>2.25961362858125E-09</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>1.367271702767088E-06</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>0.02772364746654427</v>
       </c>
     </row>

--- a/results/case2_cut_off/data_uniquie_case2_cut_off_recipe.xlsx
+++ b/results/case2_cut_off/data_uniquie_case2_cut_off_recipe.xlsx
@@ -561,67 +561,67 @@
         <v>21</v>
       </c>
       <c r="B2">
-        <v>0.0003425781623884415</v>
+        <v>0.0003425781655229434</v>
       </c>
       <c r="C2">
-        <v>0.3281570466931743</v>
+        <v>0.3281570484803371</v>
       </c>
       <c r="D2">
-        <v>0.01184520234570621</v>
+        <v>0.01184520216055493</v>
       </c>
       <c r="E2">
-        <v>0.0170749990211199</v>
+        <v>0.01707499878400706</v>
       </c>
       <c r="F2">
-        <v>0.717756246145474</v>
+        <v>0.7177562263166317</v>
       </c>
       <c r="G2">
-        <v>0.115699332878513</v>
+        <v>0.115699333281832</v>
       </c>
       <c r="H2">
-        <v>3.298847121460018E-06</v>
+        <v>3.298846856715536E-06</v>
       </c>
       <c r="I2">
-        <v>3.870076823661328E-06</v>
+        <v>3.870076874538169E-06</v>
       </c>
       <c r="J2">
-        <v>0.003991521966311119</v>
+        <v>0.003991522408192294</v>
       </c>
       <c r="K2">
-        <v>0.126418398186744</v>
+        <v>0.1264183962653146</v>
       </c>
       <c r="L2">
-        <v>-0.006059359525740825</v>
+        <v>-0.006059359807815702</v>
       </c>
       <c r="M2">
-        <v>-0.05756637405232852</v>
+        <v>-0.05756637517771758</v>
       </c>
       <c r="N2">
-        <v>0.001395845316232649</v>
+        <v>0.00139584547232218</v>
       </c>
       <c r="O2">
-        <v>-5.518284975745522E-08</v>
+        <v>-5.518284953482894E-08</v>
       </c>
       <c r="P2">
-        <v>0.0001540992494267423</v>
+        <v>0.0001540992527137027</v>
       </c>
       <c r="Q2">
-        <v>0.0002202273038038324</v>
+        <v>0.0002202273099364383</v>
       </c>
       <c r="R2">
-        <v>0.0002420691444768594</v>
+        <v>0.000242069150924827</v>
       </c>
       <c r="S2">
-        <v>0.001015922592381875</v>
+        <v>0.001015922585355056</v>
       </c>
       <c r="T2">
-        <v>5.328908648505404E-10</v>
+        <v>5.328908608062164E-10</v>
       </c>
       <c r="U2">
-        <v>4.457882813141255E-07</v>
+        <v>4.457882860563594E-07</v>
       </c>
       <c r="V2">
-        <v>0.04768744207211895</v>
+        <v>0.0476874422399691</v>
       </c>
     </row>
     <row r="3" spans="1:22">
@@ -629,67 +629,67 @@
         <v>22</v>
       </c>
       <c r="B3">
-        <v>0.0006720016567499758</v>
+        <v>0.0006720016426371093</v>
       </c>
       <c r="C3">
-        <v>0.1822838754202795</v>
+        <v>0.1822838778160453</v>
       </c>
       <c r="D3">
-        <v>0.04125832725290141</v>
+        <v>0.0412583258672768</v>
       </c>
       <c r="E3">
-        <v>0.0520185743799752</v>
+        <v>0.05201857261705004</v>
       </c>
       <c r="F3">
-        <v>2.319406782308865</v>
+        <v>2.319406665264638</v>
       </c>
       <c r="G3">
-        <v>0.04712924038688626</v>
+        <v>0.04712924072849507</v>
       </c>
       <c r="H3">
-        <v>0.0001769691982145868</v>
+        <v>0.0001769691983347514</v>
       </c>
       <c r="I3">
-        <v>9.346028900427884E-05</v>
+        <v>9.346028913421614E-05</v>
       </c>
       <c r="J3">
-        <v>0.01724853646469634</v>
+        <v>0.01724853954539551</v>
       </c>
       <c r="K3">
-        <v>0.5708937271657222</v>
+        <v>0.5708937080918526</v>
       </c>
       <c r="L3">
-        <v>0.05102670421992616</v>
+        <v>0.05102670435692726</v>
       </c>
       <c r="M3">
-        <v>0.034407919429011</v>
+        <v>0.03440791525652689</v>
       </c>
       <c r="N3">
-        <v>0.003585839305693599</v>
+        <v>0.003585839959506278</v>
       </c>
       <c r="O3">
-        <v>1.955897126204152E-07</v>
+        <v>1.955897114662696E-07</v>
       </c>
       <c r="P3">
-        <v>0.0002307194056652674</v>
+        <v>0.0002307194034412435</v>
       </c>
       <c r="Q3">
-        <v>0.0003893896539316574</v>
+        <v>0.0003893896342922346</v>
       </c>
       <c r="R3">
-        <v>0.0003990601703875094</v>
+        <v>0.0003990601511025969</v>
       </c>
       <c r="S3">
-        <v>0.003187288210232879</v>
+        <v>0.003187288244707012</v>
       </c>
       <c r="T3">
-        <v>1.188712156065391E-09</v>
+        <v>1.188712117857421E-09</v>
       </c>
       <c r="U3">
-        <v>5.094927295635019E-07</v>
+        <v>5.094927363295169E-07</v>
       </c>
       <c r="V3">
-        <v>0.009766875812259697</v>
+        <v>0.009766875858991372</v>
       </c>
     </row>
     <row r="4" spans="1:22">
@@ -697,67 +697,67 @@
         <v>23</v>
       </c>
       <c r="B4">
-        <v>0.009064027517111427</v>
+        <v>0.009064027516345349</v>
       </c>
       <c r="C4">
-        <v>3.206511200458488</v>
+        <v>3.206511201614864</v>
       </c>
       <c r="D4">
-        <v>0.08084504266178817</v>
+        <v>0.08084504390356588</v>
       </c>
       <c r="E4">
-        <v>0.1082171985678932</v>
+        <v>0.1082172001313464</v>
       </c>
       <c r="F4">
-        <v>7.507900364373238</v>
+        <v>7.50790044064601</v>
       </c>
       <c r="G4">
-        <v>1.89875087031412</v>
+        <v>1.898750870183819</v>
       </c>
       <c r="H4">
-        <v>0.0007928509551372221</v>
+        <v>0.0007928509569964637</v>
       </c>
       <c r="I4">
-        <v>0.0001122478951027875</v>
+        <v>0.0001122478952236573</v>
       </c>
       <c r="J4">
-        <v>0.1304213839177061</v>
+        <v>0.1304213821398096</v>
       </c>
       <c r="K4">
-        <v>1.940271954263387</v>
+        <v>1.940271973056699</v>
       </c>
       <c r="L4">
-        <v>0.2031594529083666</v>
+        <v>0.2031594527400253</v>
       </c>
       <c r="M4">
-        <v>0.09232798169995182</v>
+        <v>0.09232800984916512</v>
       </c>
       <c r="N4">
-        <v>0.02530561220011893</v>
+        <v>0.02530561209895409</v>
       </c>
       <c r="O4">
-        <v>5.821816237524919E-07</v>
+        <v>5.821816235138521E-07</v>
       </c>
       <c r="P4">
-        <v>0.004033713033495647</v>
+        <v>0.004033713026639935</v>
       </c>
       <c r="Q4">
-        <v>0.007820575330633754</v>
+        <v>0.007820575285652189</v>
       </c>
       <c r="R4">
-        <v>0.008528142709901517</v>
+        <v>0.008528142667883855</v>
       </c>
       <c r="S4">
-        <v>0.04847674898763705</v>
+        <v>0.04847674900026814</v>
       </c>
       <c r="T4">
-        <v>1.350617304188677E-08</v>
+        <v>1.350617329256192E-08</v>
       </c>
       <c r="U4">
-        <v>6.502239334251814E-06</v>
+        <v>6.50223932937383E-06</v>
       </c>
       <c r="V4">
-        <v>0.7136914437179616</v>
+        <v>0.7136914434922953</v>
       </c>
     </row>
     <row r="5" spans="1:22">
@@ -765,67 +765,67 @@
         <v>24</v>
       </c>
       <c r="B5">
-        <v>1.990114184636684E-05</v>
+        <v>4.330347987974375E-06</v>
       </c>
       <c r="C5">
-        <v>0.0009382342590153366</v>
+        <v>0.0008509907172584536</v>
       </c>
       <c r="D5">
-        <v>0.0009099228062941555</v>
+        <v>0.0008178324569415769</v>
       </c>
       <c r="E5">
-        <v>0.001425914984288039</v>
+        <v>0.001299277200861922</v>
       </c>
       <c r="F5">
-        <v>0.03766559625211642</v>
+        <v>0.01129818841900343</v>
       </c>
       <c r="G5">
-        <v>0.0002493668798670405</v>
+        <v>0.0002195650390197187</v>
       </c>
       <c r="H5">
-        <v>1.422003050885556E-06</v>
+        <v>1.290391705425021E-06</v>
       </c>
       <c r="I5">
-        <v>8.27326279936185E-08</v>
+        <v>5.317155788052453E-08</v>
       </c>
       <c r="J5">
-        <v>0.0002493386976604225</v>
+        <v>0.0003469885777079818</v>
       </c>
       <c r="K5">
-        <v>0.01541862310225114</v>
+        <v>0.0138236801650656</v>
       </c>
       <c r="L5">
-        <v>7.389266068228228E-05</v>
+        <v>5.155661506101406E-05</v>
       </c>
       <c r="M5">
-        <v>4.539447792257557E-05</v>
+        <v>4.302014370613057E-05</v>
       </c>
       <c r="N5">
-        <v>0.0001430800716067106</v>
+        <v>9.835056989560853E-05</v>
       </c>
       <c r="O5">
-        <v>2.61049468715177E-09</v>
+        <v>2.490863569539841E-09</v>
       </c>
       <c r="P5">
-        <v>6.674361045927493E-06</v>
+        <v>2.146506541860813E-06</v>
       </c>
       <c r="Q5">
-        <v>5.181196548157087E-06</v>
+        <v>4.589231032870741E-06</v>
       </c>
       <c r="R5">
-        <v>5.312219792401602E-06</v>
+        <v>4.701156850708848E-06</v>
       </c>
       <c r="S5">
-        <v>2.435085333744508E-05</v>
+        <v>6.794295877911163E-06</v>
       </c>
       <c r="T5">
-        <v>1.009690694271209E-11</v>
+        <v>5.98520199866993E-12</v>
       </c>
       <c r="U5">
-        <v>9.467436338596906E-09</v>
+        <v>6.46542648125123E-09</v>
       </c>
       <c r="V5">
-        <v>0.0001060926690721167</v>
+        <v>8.63549254468243E-05</v>
       </c>
     </row>
     <row r="6" spans="1:22">
@@ -833,67 +833,67 @@
         <v>25</v>
       </c>
       <c r="B6">
-        <v>0.01470091481821093</v>
+        <v>0.0147009148301777</v>
       </c>
       <c r="C6">
-        <v>0.743171157824382</v>
+        <v>0.7431711589805684</v>
       </c>
       <c r="D6">
-        <v>1.327090702980533</v>
+        <v>1.327090703320352</v>
       </c>
       <c r="E6">
-        <v>1.706688600565403</v>
+        <v>1.706688601011589</v>
       </c>
       <c r="F6">
-        <v>106.6649558749635</v>
+        <v>106.6649559051791</v>
       </c>
       <c r="G6">
-        <v>0.2028813169602872</v>
+        <v>0.2028813173511348</v>
       </c>
       <c r="H6">
-        <v>0.001891765986143812</v>
+        <v>0.001891765986721556</v>
       </c>
       <c r="I6">
-        <v>5.553644755510688E-05</v>
+        <v>5.553644762678619E-05</v>
       </c>
       <c r="J6">
-        <v>0.1574755159375695</v>
+        <v>0.1574755157257623</v>
       </c>
       <c r="K6">
-        <v>19.9506749530362</v>
+        <v>19.95067495875609</v>
       </c>
       <c r="L6">
-        <v>0.09955149230798098</v>
+        <v>0.09955149214037529</v>
       </c>
       <c r="M6">
-        <v>0.05491246637992644</v>
+        <v>0.05491246801921725</v>
       </c>
       <c r="N6">
-        <v>0.06851265228942623</v>
+        <v>0.06851265225621034</v>
       </c>
       <c r="O6">
-        <v>4.740746318747297E-07</v>
+        <v>4.740746330242582E-07</v>
       </c>
       <c r="P6">
-        <v>0.005099328671482982</v>
+        <v>0.005099328676390512</v>
       </c>
       <c r="Q6">
-        <v>0.003484290342377592</v>
+        <v>0.003484290356193423</v>
       </c>
       <c r="R6">
-        <v>0.00357238207001844</v>
+        <v>0.00357238208409495</v>
       </c>
       <c r="S6">
-        <v>0.01065766073372687</v>
+        <v>0.01065766073567342</v>
       </c>
       <c r="T6">
-        <v>9.72893750602394E-09</v>
+        <v>9.728937529178601E-09</v>
       </c>
       <c r="U6">
-        <v>8.991574862392884E-06</v>
+        <v>8.991574867166974E-06</v>
       </c>
       <c r="V6">
-        <v>0.0646377268895148</v>
+        <v>0.06463772702517528</v>
       </c>
     </row>
     <row r="7" spans="1:22">
@@ -901,67 +901,67 @@
         <v>26</v>
       </c>
       <c r="B7">
-        <v>0.007212653564167183</v>
+        <v>0.007212653578912786</v>
       </c>
       <c r="C7">
-        <v>2.429624047259497</v>
+        <v>2.429624049394867</v>
       </c>
       <c r="D7">
-        <v>0.06752647852509119</v>
+        <v>0.06752647945303689</v>
       </c>
       <c r="E7">
-        <v>0.08994381376646937</v>
+        <v>0.08994381493547292</v>
       </c>
       <c r="F7">
-        <v>6.667466640891591</v>
+        <v>6.667466696362961</v>
       </c>
       <c r="G7">
-        <v>1.333564838681391</v>
+        <v>1.333564839009367</v>
       </c>
       <c r="H7">
-        <v>0.000670391160098163</v>
+        <v>0.0006703911607223255</v>
       </c>
       <c r="I7">
-        <v>0.0001889270915868406</v>
+        <v>0.0001889270916036967</v>
       </c>
       <c r="J7">
-        <v>0.1039684475086285</v>
+        <v>0.1039684463454146</v>
       </c>
       <c r="K7">
-        <v>1.811883990301965</v>
+        <v>1.811884001003909</v>
       </c>
       <c r="L7">
-        <v>0.1764031595782539</v>
+        <v>0.1764031592186723</v>
       </c>
       <c r="M7">
-        <v>0.4914189859643327</v>
+        <v>0.4914189832397806</v>
       </c>
       <c r="N7">
-        <v>0.449605575390108</v>
+        <v>0.449605575238736</v>
       </c>
       <c r="O7">
-        <v>7.318063722913073E-07</v>
+        <v>7.318063736149279E-07</v>
       </c>
       <c r="P7">
-        <v>0.003272784855439596</v>
+        <v>0.003272784860049496</v>
       </c>
       <c r="Q7">
-        <v>0.006293594089863855</v>
+        <v>0.006293594095625029</v>
       </c>
       <c r="R7">
-        <v>0.00680531182234161</v>
+        <v>0.00680531182784004</v>
       </c>
       <c r="S7">
-        <v>0.04477038566595413</v>
+        <v>0.04477038566331974</v>
       </c>
       <c r="T7">
-        <v>1.415166319388641E-08</v>
+        <v>1.415166318133983E-08</v>
       </c>
       <c r="U7">
-        <v>5.176531744531417E-06</v>
+        <v>5.176531747983045E-06</v>
       </c>
       <c r="V7">
-        <v>0.5972325446278138</v>
+        <v>0.5972325447427285</v>
       </c>
     </row>
     <row r="8" spans="1:22">
@@ -969,67 +969,67 @@
         <v>27</v>
       </c>
       <c r="B8">
-        <v>0.002276159143760666</v>
+        <v>0.002276159144772686</v>
       </c>
       <c r="C8">
-        <v>0.1639270603016</v>
+        <v>0.1639270604477119</v>
       </c>
       <c r="D8">
-        <v>0.01652985352071682</v>
+        <v>0.01652985356697749</v>
       </c>
       <c r="E8">
-        <v>0.02262727799269667</v>
+        <v>0.0226272780480429</v>
       </c>
       <c r="F8">
-        <v>4.073295798244034</v>
+        <v>4.073295800633794</v>
       </c>
       <c r="G8">
-        <v>0.06828633362852393</v>
+        <v>0.0682863336847933</v>
       </c>
       <c r="H8">
-        <v>4.842529429113035E-05</v>
+        <v>4.842529431934944E-05</v>
       </c>
       <c r="I8">
-        <v>9.173054768014075E-06</v>
+        <v>9.173054779304116E-06</v>
       </c>
       <c r="J8">
-        <v>0.02773514899185536</v>
+        <v>0.02773514883659924</v>
       </c>
       <c r="K8">
-        <v>0.3015071899538789</v>
+        <v>0.3015071905305193</v>
       </c>
       <c r="L8">
-        <v>0.009418586929227616</v>
+        <v>0.009418586918683428</v>
       </c>
       <c r="M8">
-        <v>0.002912705965740758</v>
+        <v>0.002912705422474318</v>
       </c>
       <c r="N8">
-        <v>0.009177714666180361</v>
+        <v>0.009177714654080486</v>
       </c>
       <c r="O8">
-        <v>8.146910458019566E-08</v>
+        <v>8.146910475327474E-08</v>
       </c>
       <c r="P8">
-        <v>0.0007630774469454877</v>
+        <v>0.000763077447158546</v>
       </c>
       <c r="Q8">
-        <v>0.0004023391400765199</v>
+        <v>0.0004023391410633385</v>
       </c>
       <c r="R8">
-        <v>0.0004310165204611943</v>
+        <v>0.0004310165215683944</v>
       </c>
       <c r="S8">
-        <v>0.004277360177517013</v>
+        <v>0.004277360177629884</v>
       </c>
       <c r="T8">
-        <v>1.115930722348116E-09</v>
+        <v>1.115930718376522E-09</v>
       </c>
       <c r="U8">
-        <v>8.020479456930242E-07</v>
+        <v>8.020479455795012E-07</v>
       </c>
       <c r="V8">
-        <v>0.02633937975998069</v>
+        <v>0.026339379787124</v>
       </c>
     </row>
     <row r="9" spans="1:22">
@@ -1037,67 +1037,67 @@
         <v>28</v>
       </c>
       <c r="B9">
-        <v>0.00922107110714787</v>
+        <v>0.009221070178477321</v>
       </c>
       <c r="C9">
-        <v>2.613780898759041</v>
+        <v>2.613780855465426</v>
       </c>
       <c r="D9">
-        <v>0.5237057618790464</v>
+        <v>0.5237057056038807</v>
       </c>
       <c r="E9">
-        <v>0.6594677436671508</v>
+        <v>0.6594676720343222</v>
       </c>
       <c r="F9">
-        <v>27.28412881833761</v>
+        <v>27.28412376326146</v>
       </c>
       <c r="G9">
-        <v>0.6726728546860876</v>
+        <v>0.6726728360684056</v>
       </c>
       <c r="H9">
-        <v>0.002558289068751256</v>
+        <v>0.002558289022672781</v>
       </c>
       <c r="I9">
-        <v>0.001769465491286981</v>
+        <v>0.001769465490114801</v>
       </c>
       <c r="J9">
-        <v>0.2443130985056992</v>
+        <v>0.2443131299243719</v>
       </c>
       <c r="K9">
-        <v>7.418088307517388</v>
+        <v>7.418087471088941</v>
       </c>
       <c r="L9">
-        <v>0.7194758506151008</v>
+        <v>0.7194758526900196</v>
       </c>
       <c r="M9">
-        <v>0.4853171453511967</v>
+        <v>0.4853171505744719</v>
       </c>
       <c r="N9">
-        <v>0.05620282861282914</v>
+        <v>0.05620283528665638</v>
       </c>
       <c r="O9">
-        <v>2.905570443746194E-06</v>
+        <v>2.905570396847806E-06</v>
       </c>
       <c r="P9">
-        <v>0.003190112540555009</v>
+        <v>0.003190112221595139</v>
       </c>
       <c r="Q9">
-        <v>0.005521833711621849</v>
+        <v>0.005521832808630119</v>
       </c>
       <c r="R9">
-        <v>0.005660185869287248</v>
+        <v>0.005660184941612621</v>
       </c>
       <c r="S9">
-        <v>0.04791135609752091</v>
+        <v>0.04791135624114958</v>
       </c>
       <c r="T9">
-        <v>1.676798372066891E-08</v>
+        <v>1.676798319426267E-08</v>
       </c>
       <c r="U9">
-        <v>7.051190027458169E-06</v>
+        <v>7.051189699992102E-06</v>
       </c>
       <c r="V9">
-        <v>0.1411066837593529</v>
+        <v>0.1411066748475127</v>
       </c>
     </row>
     <row r="10" spans="1:22">
@@ -1105,67 +1105,67 @@
         <v>29</v>
       </c>
       <c r="B10">
-        <v>-0.0002334284203782411</v>
+        <v>-0.0002334284186818208</v>
       </c>
       <c r="C10">
-        <v>-2.074519898869223</v>
+        <v>-2.07451989869702</v>
       </c>
       <c r="D10">
-        <v>-0.1045206272657499</v>
+        <v>-0.1045206271310554</v>
       </c>
       <c r="E10">
-        <v>-0.1489782022768233</v>
+        <v>-0.1489782021030513</v>
       </c>
       <c r="F10">
-        <v>-4.95810793907421</v>
+        <v>-4.95810792669162</v>
       </c>
       <c r="G10">
-        <v>-0.01449179825184746</v>
+        <v>-0.01449179822462692</v>
       </c>
       <c r="H10">
-        <v>-3.056035941733786E-05</v>
+        <v>-3.056035920084305E-05</v>
       </c>
       <c r="I10">
-        <v>-8.164642713817194E-06</v>
+        <v>-8.164642705281033E-06</v>
       </c>
       <c r="J10">
-        <v>-0.02036293044148221</v>
+        <v>-0.02036293028065684</v>
       </c>
       <c r="K10">
-        <v>-1.426891948799187</v>
+        <v>-1.426891946820608</v>
       </c>
       <c r="L10">
-        <v>-0.001959240739471793</v>
+        <v>-0.001959240724810855</v>
       </c>
       <c r="M10">
-        <v>-0.0006602886163587622</v>
+        <v>-0.0006602878832102123</v>
       </c>
       <c r="N10">
-        <v>-0.002445511246535928</v>
+        <v>-0.002445511201114787</v>
       </c>
       <c r="O10">
-        <v>-3.056180823813644E-07</v>
+        <v>-3.056180823563597E-07</v>
       </c>
       <c r="P10">
-        <v>-8.807565369195743E-05</v>
+        <v>-8.807565303912358E-05</v>
       </c>
       <c r="Q10">
-        <v>-0.0004170514877888608</v>
+        <v>-0.0004170514874786512</v>
       </c>
       <c r="R10">
-        <v>-0.0004239245831465096</v>
+        <v>-0.0004239245828372965</v>
       </c>
       <c r="S10">
-        <v>-0.00174633122298686</v>
+        <v>-0.00174633122079191</v>
       </c>
       <c r="T10">
-        <v>-6.084104234443501E-09</v>
+        <v>-6.084104226656038E-09</v>
       </c>
       <c r="U10">
-        <v>-2.378044352078313E-06</v>
+        <v>-2.37804435051822E-06</v>
       </c>
       <c r="V10">
-        <v>-0.005864554621380406</v>
+        <v>-0.005864554610912707</v>
       </c>
     </row>
     <row r="11" spans="1:22">
@@ -1173,67 +1173,67 @@
         <v>30</v>
       </c>
       <c r="B11">
-        <v>-0.0002753427538546185</v>
+        <v>-0.000275342749842877</v>
       </c>
       <c r="C11">
-        <v>-2.214513320720515</v>
+        <v>-2.214513320272993</v>
       </c>
       <c r="D11">
-        <v>-0.1870157237474837</v>
+        <v>-0.1870157235050202</v>
       </c>
       <c r="E11">
-        <v>-0.2569630901609884</v>
+        <v>-0.2569630898482637</v>
       </c>
       <c r="F11">
-        <v>-5.026237671916464</v>
+        <v>-5.026237649707957</v>
       </c>
       <c r="G11">
-        <v>-0.01608914944029192</v>
+        <v>-0.01608914934386875</v>
       </c>
       <c r="H11">
-        <v>-3.786325354041224E-05</v>
+        <v>-3.786325316001242E-05</v>
       </c>
       <c r="I11">
-        <v>-1.12440801601939E-05</v>
+        <v>-1.124408014079224E-05</v>
       </c>
       <c r="J11">
-        <v>-0.02671993718806872</v>
+        <v>-0.02671993696184808</v>
       </c>
       <c r="K11">
-        <v>-3.001157495986913</v>
+        <v>-3.001157492433912</v>
       </c>
       <c r="L11">
-        <v>-0.002177916340478867</v>
+        <v>-0.002177916316816865</v>
       </c>
       <c r="M11">
-        <v>-0.0008949902944258072</v>
+        <v>-0.0008949905268913055</v>
       </c>
       <c r="N11">
-        <v>-0.002786364552059174</v>
+        <v>-0.00278636448523197</v>
       </c>
       <c r="O11">
-        <v>-4.507436074116182E-07</v>
+        <v>-4.507436072472791E-07</v>
       </c>
       <c r="P11">
-        <v>-0.0001036972079359721</v>
+        <v>-0.0001036972062669439</v>
       </c>
       <c r="Q11">
-        <v>-0.0005020098406025226</v>
+        <v>-0.0005020098379929081</v>
       </c>
       <c r="R11">
-        <v>-0.000509860349668901</v>
+        <v>-0.0005098603470156902</v>
       </c>
       <c r="S11">
-        <v>-0.002204769085929429</v>
+        <v>-0.002204769082246681</v>
       </c>
       <c r="T11">
-        <v>-6.57226590536247E-09</v>
+        <v>-6.5722659042712E-09</v>
       </c>
       <c r="U11">
-        <v>-2.899221371477344E-06</v>
+        <v>-2.899221368441542E-06</v>
       </c>
       <c r="V11">
-        <v>-0.006503775910062367</v>
+        <v>-0.006503775871296189</v>
       </c>
     </row>
     <row r="12" spans="1:22">
@@ -1241,67 +1241,67 @@
         <v>31</v>
       </c>
       <c r="B12">
-        <v>0.0005037847656474417</v>
+        <v>0.0005037847515967803</v>
       </c>
       <c r="C12">
-        <v>0.2084098714359555</v>
+        <v>0.2084098713772054</v>
       </c>
       <c r="D12">
-        <v>0.01250018077764688</v>
+        <v>0.01250017964480215</v>
       </c>
       <c r="E12">
-        <v>0.01630201424449873</v>
+        <v>0.01630201275730624</v>
       </c>
       <c r="F12">
-        <v>0.6245139144575079</v>
+        <v>0.624513811967261</v>
       </c>
       <c r="G12">
-        <v>0.05471552734923582</v>
+        <v>0.05471552732124552</v>
       </c>
       <c r="H12">
-        <v>0.000163495474223792</v>
+        <v>0.0001634954738757834</v>
       </c>
       <c r="I12">
-        <v>1.188510965522298E-05</v>
+        <v>1.188510963221108E-05</v>
       </c>
       <c r="J12">
-        <v>0.01662770419780768</v>
+        <v>0.01662770352194031</v>
       </c>
       <c r="K12">
-        <v>0.2947845154447926</v>
+        <v>0.2947845002372657</v>
       </c>
       <c r="L12">
-        <v>0.06328972177475187</v>
+        <v>0.06328972180105297</v>
       </c>
       <c r="M12">
-        <v>0.04349396356762832</v>
+        <v>0.04349396250568267</v>
       </c>
       <c r="N12">
-        <v>0.002096436491751902</v>
+        <v>0.002096436372997805</v>
       </c>
       <c r="O12">
-        <v>2.090750688391444E-07</v>
+        <v>2.090750685121739E-07</v>
       </c>
       <c r="P12">
-        <v>0.0001699537574775721</v>
+        <v>0.0001699537533994027</v>
       </c>
       <c r="Q12">
-        <v>0.0004089896686911075</v>
+        <v>0.0004089896697428024</v>
       </c>
       <c r="R12">
-        <v>0.0004182080443079319</v>
+        <v>0.0004182080453299006</v>
       </c>
       <c r="S12">
-        <v>0.003495028350476808</v>
+        <v>0.00349502833242267</v>
       </c>
       <c r="T12">
-        <v>1.257077561418727E-09</v>
+        <v>1.257077546641741E-09</v>
       </c>
       <c r="U12">
-        <v>4.313872895604476E-07</v>
+        <v>4.313872811959829E-07</v>
       </c>
       <c r="V12">
-        <v>0.01031957075552154</v>
+        <v>0.01031957071657832</v>
       </c>
     </row>
     <row r="13" spans="1:22">
@@ -1309,67 +1309,67 @@
         <v>32</v>
       </c>
       <c r="B13">
-        <v>0.011620688679358</v>
+        <v>0.01162068857335907</v>
       </c>
       <c r="C13">
-        <v>3.46688616883342</v>
+        <v>3.466886215880384</v>
       </c>
       <c r="D13">
-        <v>0.7086162010761681</v>
+        <v>0.7086161950306298</v>
       </c>
       <c r="E13">
-        <v>0.8912456540397625</v>
+        <v>0.891245646699802</v>
       </c>
       <c r="F13">
-        <v>36.42125405736589</v>
+        <v>36.42125363123429</v>
       </c>
       <c r="G13">
-        <v>0.8974062396081106</v>
+        <v>0.8974062445526668</v>
       </c>
       <c r="H13">
-        <v>0.003207825059484286</v>
+        <v>0.003207825079560609</v>
       </c>
       <c r="I13">
-        <v>0.001413958191516022</v>
+        <v>0.001413958193782714</v>
       </c>
       <c r="J13">
-        <v>0.3160316956118051</v>
+        <v>0.3160317409281052</v>
       </c>
       <c r="K13">
-        <v>9.502532697216395</v>
+        <v>9.50253263099237</v>
       </c>
       <c r="L13">
-        <v>0.9889259694185847</v>
+        <v>0.9889259713025144</v>
       </c>
       <c r="M13">
-        <v>0.664852893101184</v>
+        <v>0.6648530193174272</v>
       </c>
       <c r="N13">
-        <v>0.05724205172637147</v>
+        <v>0.05724206294106698</v>
       </c>
       <c r="O13">
-        <v>3.638717820307261E-06</v>
+        <v>3.63871779934752E-06</v>
       </c>
       <c r="P13">
-        <v>0.003997746854883077</v>
+        <v>0.003997746807672455</v>
       </c>
       <c r="Q13">
-        <v>0.007253941299558085</v>
+        <v>0.00725394079309776</v>
       </c>
       <c r="R13">
-        <v>0.007432664848214353</v>
+        <v>0.00743266434657466</v>
       </c>
       <c r="S13">
-        <v>0.05870154965050627</v>
+        <v>0.05870155035805603</v>
       </c>
       <c r="T13">
-        <v>2.217736212578787E-08</v>
+        <v>2.217736329438024E-08</v>
       </c>
       <c r="U13">
-        <v>9.091799602660407E-06</v>
+        <v>9.091799753066247E-06</v>
       </c>
       <c r="V13">
-        <v>0.1818204883493696</v>
+        <v>0.1818204886049303</v>
       </c>
     </row>
     <row r="14" spans="1:22">
@@ -1377,67 +1377,67 @@
         <v>33</v>
       </c>
       <c r="B14">
-        <v>0.0001182622969800845</v>
+        <v>0.0001182622939873633</v>
       </c>
       <c r="C14">
-        <v>0.03461772790416727</v>
+        <v>0.03461772672780664</v>
       </c>
       <c r="D14">
-        <v>0.00173947606523207</v>
+        <v>0.001739476186588416</v>
       </c>
       <c r="E14">
-        <v>0.002274848382549961</v>
+        <v>0.002274848520822469</v>
       </c>
       <c r="F14">
-        <v>0.1727080804683562</v>
+        <v>0.1727080906577005</v>
       </c>
       <c r="G14">
-        <v>0.009931553882916229</v>
+        <v>0.009931553602507855</v>
       </c>
       <c r="H14">
-        <v>1.041736738875662E-05</v>
+        <v>1.0417367392687E-05</v>
       </c>
       <c r="I14">
-        <v>9.033479523494275E-07</v>
+        <v>9.03347920828792E-07</v>
       </c>
       <c r="J14">
-        <v>0.001523289931571321</v>
+        <v>0.001523289564666364</v>
       </c>
       <c r="K14">
-        <v>0.04214076704142716</v>
+        <v>0.04214076843171626</v>
       </c>
       <c r="L14">
-        <v>0.002968783016868141</v>
+        <v>0.002968783049988598</v>
       </c>
       <c r="M14">
-        <v>0.02088456535833128</v>
+        <v>0.02088456572076757</v>
       </c>
       <c r="N14">
-        <v>0.0003024705428565436</v>
+        <v>0.0003024704847352426</v>
       </c>
       <c r="O14">
-        <v>3.236197836003222E-08</v>
+        <v>3.236197804290654E-08</v>
       </c>
       <c r="P14">
-        <v>5.050228399036261E-05</v>
+        <v>5.050228153655917E-05</v>
       </c>
       <c r="Q14">
-        <v>0.0001251274064359056</v>
+        <v>0.0001251273998663563</v>
       </c>
       <c r="R14">
-        <v>0.0001294711491188871</v>
+        <v>0.0001294711423717406</v>
       </c>
       <c r="S14">
-        <v>0.0002207392844639658</v>
+        <v>0.0002207392842759185</v>
       </c>
       <c r="T14">
-        <v>3.343011039605736E-10</v>
+        <v>3.343011025967565E-10</v>
       </c>
       <c r="U14">
-        <v>7.917687581491705E-08</v>
+        <v>7.917687227267426E-08</v>
       </c>
       <c r="V14">
-        <v>0.003045820597217346</v>
+        <v>0.003045820499840993</v>
       </c>
     </row>
     <row r="15" spans="1:22">
@@ -1445,67 +1445,67 @@
         <v>34</v>
       </c>
       <c r="B15">
-        <v>0.0008592200709159755</v>
+        <v>6.147135005307272E-05</v>
       </c>
       <c r="C15">
-        <v>0.01698343233464214</v>
+        <v>0.01251362658934388</v>
       </c>
       <c r="D15">
-        <v>0.007438220724507312</v>
+        <v>0.002720095291141438</v>
       </c>
       <c r="E15">
-        <v>0.01012030673054942</v>
+        <v>0.003632189886377992</v>
       </c>
       <c r="F15">
-        <v>1.795858860111199</v>
+        <v>0.4449601147584936</v>
       </c>
       <c r="G15">
-        <v>0.004524194728982195</v>
+        <v>0.002997337412612526</v>
       </c>
       <c r="H15">
-        <v>1.30710076508932E-05</v>
+        <v>6.328077028702369E-06</v>
       </c>
       <c r="I15">
-        <v>2.273305257306316E-06</v>
+        <v>7.587835131659624E-07</v>
       </c>
       <c r="J15">
-        <v>0.01090034296838662</v>
+        <v>0.01590330350406462</v>
       </c>
       <c r="K15">
-        <v>0.1233399752475698</v>
+        <v>0.04162521474018867</v>
       </c>
       <c r="L15">
-        <v>0.001944046816073654</v>
+        <v>0.000799689504664479</v>
       </c>
       <c r="M15">
-        <v>0.0005514112818371826</v>
+        <v>0.0004297653602600382</v>
       </c>
       <c r="N15">
-        <v>0.003534619866667281</v>
+        <v>0.001242963898052399</v>
       </c>
       <c r="O15">
-        <v>9.648030088724651E-09</v>
+        <v>3.518890372708581E-09</v>
       </c>
       <c r="P15">
-        <v>0.0002742214947729925</v>
+        <v>4.22429475771351E-05</v>
       </c>
       <c r="Q15">
-        <v>6.294455905919644E-05</v>
+        <v>3.261600072367157E-05</v>
       </c>
       <c r="R15">
-        <v>6.537187985593704E-05</v>
+        <v>3.406489049300054E-05</v>
       </c>
       <c r="S15">
-        <v>0.0009958478184956701</v>
+        <v>9.636116537566146E-05</v>
       </c>
       <c r="T15">
-        <v>2.785269254650216E-10</v>
+        <v>6.786924141688775E-11</v>
       </c>
       <c r="U15">
-        <v>2.54510925484211E-07</v>
+        <v>1.007069804395573E-07</v>
       </c>
       <c r="V15">
-        <v>0.001984452698667129</v>
+        <v>0.0009732158981482628</v>
       </c>
     </row>
     <row r="16" spans="1:22">
@@ -1513,67 +1513,67 @@
         <v>35</v>
       </c>
       <c r="B16">
-        <v>5.152698657685552E-05</v>
+        <v>5.15269875749174E-05</v>
       </c>
       <c r="C16">
-        <v>0.01562895861071079</v>
+        <v>0.01562895904447449</v>
       </c>
       <c r="D16">
-        <v>0.003280850428017565</v>
+        <v>0.003280850433156194</v>
       </c>
       <c r="E16">
-        <v>0.004121580274948054</v>
+        <v>0.004121580290747098</v>
       </c>
       <c r="F16">
-        <v>0.16751597092706</v>
+        <v>0.1675159724058336</v>
       </c>
       <c r="G16">
-        <v>0.004035239652775173</v>
+        <v>0.004035239766505437</v>
       </c>
       <c r="H16">
-        <v>1.319445448066351E-05</v>
+        <v>1.319445466470771E-05</v>
       </c>
       <c r="I16">
-        <v>8.9676581020899E-07</v>
+        <v>8.967658256228113E-07</v>
       </c>
       <c r="J16">
-        <v>0.001386874441492083</v>
+        <v>0.001386874712230124</v>
       </c>
       <c r="K16">
-        <v>0.0409824714403017</v>
+        <v>0.04098247158320153</v>
       </c>
       <c r="L16">
-        <v>0.004494110598717755</v>
+        <v>0.004494110622454626</v>
       </c>
       <c r="M16">
-        <v>0.003112725618188714</v>
+        <v>0.003112725759821324</v>
       </c>
       <c r="N16">
-        <v>0.0002282867167111859</v>
+        <v>0.0002282867674188521</v>
       </c>
       <c r="O16">
-        <v>1.517327571125803E-08</v>
+        <v>1.517327581536668E-08</v>
       </c>
       <c r="P16">
-        <v>1.756857698396383E-05</v>
+        <v>1.756857762397352E-05</v>
       </c>
       <c r="Q16">
-        <v>3.24321486201749E-05</v>
+        <v>3.243214889081181E-05</v>
       </c>
       <c r="R16">
-        <v>3.321219495968852E-05</v>
+        <v>3.321219526912054E-05</v>
       </c>
       <c r="S16">
-        <v>0.000261150283775666</v>
+        <v>0.0002611502877836722</v>
       </c>
       <c r="T16">
-        <v>1.000313285082893E-10</v>
+        <v>1.0003133137666E-10</v>
       </c>
       <c r="U16">
-        <v>4.014411396520964E-08</v>
+        <v>4.014411571067368E-08</v>
       </c>
       <c r="V16">
-        <v>0.0007925119133273682</v>
+        <v>0.0007925119481918483</v>
       </c>
     </row>
     <row r="17" spans="1:22">
@@ -1581,67 +1581,67 @@
         <v>36</v>
       </c>
       <c r="B17">
-        <v>0.0002593345356480298</v>
+        <v>0.0002593345341174698</v>
       </c>
       <c r="C17">
-        <v>0.1887243720719814</v>
+        <v>0.1887243718985959</v>
       </c>
       <c r="D17">
-        <v>0.004759688370749053</v>
+        <v>0.00475968819861962</v>
       </c>
       <c r="E17">
-        <v>0.008440847399770655</v>
+        <v>0.008440847175133595</v>
       </c>
       <c r="F17">
-        <v>3.666851699833645</v>
+        <v>3.666851683997811</v>
       </c>
       <c r="G17">
-        <v>0.05968962207809381</v>
+        <v>0.05968962204724849</v>
       </c>
       <c r="H17">
-        <v>1.313613305159146E-05</v>
+        <v>1.313613274855776E-05</v>
       </c>
       <c r="I17">
-        <v>5.253937542370948E-06</v>
+        <v>5.25393752782787E-06</v>
       </c>
       <c r="J17">
-        <v>0.009532334251522268</v>
+        <v>0.009532333942067817</v>
       </c>
       <c r="K17">
-        <v>0.1495014189258626</v>
+        <v>0.1495014163453657</v>
       </c>
       <c r="L17">
-        <v>0.003059727250138018</v>
+        <v>0.003059727201003115</v>
       </c>
       <c r="M17">
-        <v>0.007182047960285501</v>
+        <v>0.007182047811233669</v>
       </c>
       <c r="N17">
-        <v>0.003818690867328836</v>
+        <v>0.003818690808514331</v>
       </c>
       <c r="O17">
-        <v>8.613361473725474E-08</v>
+        <v>8.613361483442119E-08</v>
       </c>
       <c r="P17">
-        <v>0.0001343399059431482</v>
+        <v>0.0001343399052986418</v>
       </c>
       <c r="Q17">
-        <v>0.0002997807842842288</v>
+        <v>0.0002997807866387343</v>
       </c>
       <c r="R17">
-        <v>0.000339352892082781</v>
+        <v>0.0003393528944541053</v>
       </c>
       <c r="S17">
-        <v>0.0003055525497032402</v>
+        <v>0.0003055525452190574</v>
       </c>
       <c r="T17">
-        <v>7.458483352863012E-10</v>
+        <v>7.458483329332928E-10</v>
       </c>
       <c r="U17">
-        <v>3.263314770559269E-07</v>
+        <v>3.263314748666053E-07</v>
       </c>
       <c r="V17">
-        <v>0.0262108525391526</v>
+        <v>0.0262108525369063</v>
       </c>
     </row>
     <row r="18" spans="1:22">
@@ -1649,67 +1649,67 @@
         <v>37</v>
       </c>
       <c r="B18">
-        <v>0.001909324767137872</v>
+        <v>0.001909324825107523</v>
       </c>
       <c r="C18">
-        <v>0.4482228282362249</v>
+        <v>0.4482228377199807</v>
       </c>
       <c r="D18">
-        <v>0.04172316158099756</v>
+        <v>0.04172316311405739</v>
       </c>
       <c r="E18">
-        <v>0.05532885908780858</v>
+        <v>0.05532886104938677</v>
       </c>
       <c r="F18">
-        <v>1.43022564445517</v>
+        <v>1.430225740166441</v>
       </c>
       <c r="G18">
-        <v>0.1121827474060807</v>
+        <v>0.1121827498041042</v>
       </c>
       <c r="H18">
-        <v>0.0003351893732714672</v>
+        <v>0.0003351893768203188</v>
       </c>
       <c r="I18">
-        <v>0.002654898933681861</v>
+        <v>0.002654898934453172</v>
       </c>
       <c r="J18">
-        <v>0.02388454811876981</v>
+        <v>0.02388455123708898</v>
       </c>
       <c r="K18">
-        <v>1.084906536487747</v>
+        <v>1.084906553405464</v>
       </c>
       <c r="L18">
-        <v>0.04035979330101678</v>
+        <v>0.04035979362547769</v>
       </c>
       <c r="M18">
-        <v>0.01655609980402628</v>
+        <v>0.01655609876676536</v>
       </c>
       <c r="N18">
-        <v>0.005003061954693096</v>
+        <v>0.005003063553754034</v>
       </c>
       <c r="O18">
-        <v>4.895991323168867E-07</v>
+        <v>4.895991398399515E-07</v>
       </c>
       <c r="P18">
-        <v>0.0009785927308701933</v>
+        <v>0.0009785927559871226</v>
       </c>
       <c r="Q18">
-        <v>0.001288717479764067</v>
+        <v>0.001288717532422211</v>
       </c>
       <c r="R18">
-        <v>0.001337147691953199</v>
+        <v>0.001337147746247609</v>
       </c>
       <c r="S18">
-        <v>0.003536725539526478</v>
+        <v>0.003536725630395801</v>
       </c>
       <c r="T18">
-        <v>2.25961362858125E-09</v>
+        <v>2.259613669963563E-09</v>
       </c>
       <c r="U18">
-        <v>1.367271702767088E-06</v>
+        <v>1.367271741817987E-06</v>
       </c>
       <c r="V18">
-        <v>0.02772364746654427</v>
+        <v>0.02772364851178782</v>
       </c>
     </row>
   </sheetData>
